--- a/legendre_out/DATA/p2/p2IntegrandDataPoints1.500000.xlsx
+++ b/legendre_out/DATA/p2/p2IntegrandDataPoints1.500000.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C222"/>
+  <dimension ref="A1:C220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -383,10 +383,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.424536350759639</v>
+        <v>3.434374559103622</v>
       </c>
       <c r="C2" t="n">
-        <v>1.090399136138146e-15</v>
+        <v>1.101601191265598e-15</v>
       </c>
     </row>
     <row r="3">
@@ -394,10 +394,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3.42877843536789</v>
+        <v>3.43865949305135</v>
       </c>
       <c r="C3" t="n">
-        <v>1.635074059848999e-15</v>
+        <v>1.657552448603415e-15</v>
       </c>
     </row>
     <row r="4">
@@ -405,10 +405,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3.430466699343294</v>
+        <v>3.440287767951486</v>
       </c>
       <c r="C4" t="n">
-        <v>1.914488988397793e-15</v>
+        <v>1.955779156744036e-15</v>
       </c>
     </row>
     <row r="5">
@@ -416,10 +416,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3.433920356105163</v>
+        <v>3.443801413788623</v>
       </c>
       <c r="C5" t="n">
-        <v>2.694218143860024e-15</v>
+        <v>2.68021413376645e-15</v>
       </c>
     </row>
     <row r="6">
@@ -427,10 +427,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3.435737168099</v>
+        <v>3.445601086046668</v>
       </c>
       <c r="C6" t="n">
-        <v>2.827000338836909e-15</v>
+        <v>2.823744511238504e-15</v>
       </c>
     </row>
     <row r="7">
@@ -438,10 +438,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>3.436542735681173</v>
+        <v>3.446372374157259</v>
       </c>
       <c r="C7" t="n">
-        <v>2.848133460608894e-15</v>
+        <v>2.827574137298416e-15</v>
       </c>
     </row>
     <row r="8">
@@ -449,10 +449,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3.440861949100481</v>
+        <v>3.450743006783942</v>
       </c>
       <c r="C8" t="n">
-        <v>3.144567462276616e-15</v>
+        <v>3.131671219592661e-15</v>
       </c>
     </row>
     <row r="9">
@@ -460,10 +460,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3.444324175730245</v>
+        <v>3.454170953942123</v>
       </c>
       <c r="C9" t="n">
-        <v>3.01810892409512e-15</v>
+        <v>2.992649088508632e-15</v>
       </c>
     </row>
     <row r="10">
@@ -471,10 +471,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>3.445018335029777</v>
+        <v>3.454856543373759</v>
       </c>
       <c r="C10" t="n">
-        <v>2.736608570341903e-15</v>
+        <v>2.717955471931592e-15</v>
       </c>
     </row>
     <row r="11">
@@ -482,10 +482,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>3.44940610739225</v>
+        <v>3.459227176000442</v>
       </c>
       <c r="C11" t="n">
-        <v>2.6268230954154e-15</v>
+        <v>2.616320708001106e-15</v>
       </c>
     </row>
     <row r="12">
@@ -493,10 +493,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>3.453639622132605</v>
+        <v>3.463512109948169</v>
       </c>
       <c r="C12" t="n">
-        <v>2.18445755369931e-15</v>
+        <v>2.168264839152551e-15</v>
       </c>
     </row>
     <row r="13">
@@ -504,10 +504,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>3.45806167396666</v>
+        <v>3.467882742574851</v>
       </c>
       <c r="C13" t="n">
-        <v>1.602978666402794e-15</v>
+        <v>1.601536694622664e-15</v>
       </c>
     </row>
     <row r="14">
@@ -515,10 +515,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>3.676516176489705</v>
+        <v>3.686414373908955</v>
       </c>
       <c r="C14" t="n">
-        <v>2.582556070221391e-16</v>
+        <v>2.563877924820697e-16</v>
       </c>
     </row>
     <row r="15">
@@ -526,10 +526,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>3.677433152354519</v>
+        <v>3.687271360698501</v>
       </c>
       <c r="C15" t="n">
-        <v>3.506798969541391e-16</v>
+        <v>3.493660269224554e-16</v>
       </c>
     </row>
     <row r="16">
@@ -537,10 +537,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>3.679207115008878</v>
+        <v>3.689071032956547</v>
       </c>
       <c r="C16" t="n">
-        <v>4.043410734216715e-16</v>
+        <v>4.031301048990386e-16</v>
       </c>
     </row>
     <row r="17">
@@ -548,10 +548,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>3.680072671666319</v>
+        <v>3.689928019746092</v>
       </c>
       <c r="C17" t="n">
-        <v>4.719974285892751e-16</v>
+        <v>4.729898860458843e-16</v>
       </c>
     </row>
     <row r="18">
@@ -559,10 +559,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>3.680886809116387</v>
+        <v>3.690699307856684</v>
       </c>
       <c r="C18" t="n">
-        <v>5.67789054580853e-16</v>
+        <v>5.660219461289875e-16</v>
       </c>
     </row>
     <row r="19">
@@ -570,10 +570,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>3.681743795905933</v>
+        <v>3.691641993325183</v>
       </c>
       <c r="C19" t="n">
-        <v>6.271523211937327e-16</v>
+        <v>6.308800613258099e-16</v>
       </c>
     </row>
     <row r="20">
@@ -581,10 +581,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>3.682660771770746</v>
+        <v>3.692498980114729</v>
       </c>
       <c r="C20" t="n">
-        <v>9.522479707810636e-16</v>
+        <v>9.488821839651515e-16</v>
       </c>
     </row>
     <row r="21">
@@ -592,10 +592,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>3.683397780409756</v>
+        <v>3.693270268225319</v>
       </c>
       <c r="C21" t="n">
-        <v>2.703410747126996e-15</v>
+        <v>2.701036857440992e-15</v>
       </c>
     </row>
     <row r="22">
@@ -603,10 +603,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>3.684263337067197</v>
+        <v>3.694127255014865</v>
       </c>
       <c r="C22" t="n">
-        <v>4.211109252416556e-15</v>
+        <v>4.240303425432035e-15</v>
       </c>
     </row>
     <row r="23">
@@ -614,10 +614,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>3.685943031174706</v>
+        <v>3.695841228593956</v>
       </c>
       <c r="C23" t="n">
-        <v>6.255603913309923e-15</v>
+        <v>6.270672323963449e-15</v>
       </c>
     </row>
     <row r="24">
@@ -625,10 +625,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>3.687699854093274</v>
+        <v>3.697555202173048</v>
       </c>
       <c r="C24" t="n">
-        <v>6.264938588166287e-15</v>
+        <v>6.269298906150121e-15</v>
       </c>
     </row>
     <row r="25">
@@ -636,10 +636,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>3.689525235955006</v>
+        <v>3.699354874431093</v>
       </c>
       <c r="C25" t="n">
-        <v>5.72354515814824e-15</v>
+        <v>5.750692397524558e-15</v>
       </c>
     </row>
     <row r="26">
@@ -647,10 +647,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>3.691256349269888</v>
+        <v>3.701068848010184</v>
       </c>
       <c r="C26" t="n">
-        <v>5.381389587181225e-15</v>
+        <v>5.39635141195921e-15</v>
       </c>
     </row>
     <row r="27">
@@ -658,10 +658,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>3.693013172188456</v>
+        <v>3.70286852026823</v>
       </c>
       <c r="C27" t="n">
-        <v>5.332820335207384e-15</v>
+        <v>5.350025053424451e-15</v>
       </c>
     </row>
     <row r="28">
@@ -669,10 +669,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>3.693578783469556</v>
+        <v>3.703468411020912</v>
       </c>
       <c r="C28" t="n">
-        <v>5.393627481639329e-15</v>
+        <v>5.41062686572805e-15</v>
       </c>
     </row>
     <row r="29">
@@ -680,10 +680,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>3.694615737484906</v>
+        <v>3.704496795168366</v>
       </c>
       <c r="C29" t="n">
-        <v>5.158572716909902e-15</v>
+        <v>5.177697853237231e-15</v>
       </c>
     </row>
     <row r="30">
@@ -691,10 +691,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>3.696278291856625</v>
+        <v>3.706125070068503</v>
       </c>
       <c r="C30" t="n">
-        <v>5.144571120156621e-15</v>
+        <v>5.164706131086116e-15</v>
       </c>
     </row>
     <row r="31">
@@ -702,10 +702,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>3.698009405171506</v>
+        <v>3.707839043647593</v>
       </c>
       <c r="C31" t="n">
-        <v>5.030706086647837e-15</v>
+        <v>5.076107389882528e-15</v>
       </c>
     </row>
     <row r="32">
@@ -713,10 +713,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>3.699783367825865</v>
+        <v>3.709638715905639</v>
       </c>
       <c r="C32" t="n">
-        <v>4.861307420878654e-15</v>
+        <v>4.863752376290463e-15</v>
       </c>
     </row>
     <row r="33">
@@ -724,10 +724,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>3.70147163180127</v>
+        <v>3.71135268948473</v>
       </c>
       <c r="C33" t="n">
-        <v>4.702750627204485e-15</v>
+        <v>4.686058382636541e-15</v>
       </c>
     </row>
     <row r="34">
@@ -735,10 +735,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>3.703177035512466</v>
+        <v>3.713066663063821</v>
       </c>
       <c r="C34" t="n">
-        <v>4.281622745681991e-15</v>
+        <v>4.310130961015027e-15</v>
       </c>
     </row>
     <row r="35">
@@ -746,10 +746,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>3.704736751469439</v>
+        <v>3.714609239285003</v>
       </c>
       <c r="C35" t="n">
-        <v>3.845546030072489e-15</v>
+        <v>3.876594480785136e-15</v>
       </c>
     </row>
     <row r="36">
@@ -757,10 +757,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>3.706647832010125</v>
+        <v>3.716494610222004</v>
       </c>
       <c r="C36" t="n">
-        <v>3.085762794143919e-15</v>
+        <v>3.106173452168476e-15</v>
       </c>
     </row>
     <row r="37">
@@ -768,10 +768,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>3.708276106910262</v>
+        <v>3.718122885122139</v>
       </c>
       <c r="C37" t="n">
-        <v>2.443134560775402e-15</v>
+        <v>2.447781895991982e-15</v>
       </c>
     </row>
     <row r="38">
@@ -779,10 +779,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>3.709964370885666</v>
+        <v>3.719836858701231</v>
       </c>
       <c r="C38" t="n">
-        <v>1.612366546573809e-15</v>
+        <v>1.625413848680926e-15</v>
       </c>
     </row>
     <row r="39">
@@ -790,10 +790,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>3.710855637146794</v>
+        <v>3.720693845490776</v>
       </c>
       <c r="C39" t="n">
-        <v>2.285642837351166e-15</v>
+        <v>2.285430860942075e-15</v>
       </c>
     </row>
     <row r="40">
@@ -801,10 +801,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>3.711772613011608</v>
+        <v>3.721636530959276</v>
       </c>
       <c r="C40" t="n">
-        <v>1.12766333672542e-15</v>
+        <v>1.13432130339644e-15</v>
       </c>
     </row>
     <row r="41">
@@ -812,10 +812,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>3.713529435930176</v>
+        <v>3.723350504538367</v>
       </c>
       <c r="C41" t="n">
-        <v>7.649756519344782e-16</v>
+        <v>7.608735972245491e-16</v>
       </c>
     </row>
     <row r="42">
@@ -823,10 +823,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>3.715166280698207</v>
+        <v>3.725064478117458</v>
       </c>
       <c r="C42" t="n">
-        <v>5.725078522852408e-16</v>
+        <v>5.74112357260134e-16</v>
       </c>
     </row>
     <row r="43">
@@ -834,10 +834,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>3.719356946099085</v>
+        <v>3.729178014707276</v>
       </c>
       <c r="C43" t="n">
-        <v>3.403223284852296e-16</v>
+        <v>3.379513847699944e-16</v>
       </c>
     </row>
     <row r="44">
@@ -845,10 +845,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>3.723504762160485</v>
+        <v>3.73337724997605</v>
       </c>
       <c r="C44" t="n">
-        <v>2.90717904197192e-16</v>
+        <v>2.906339170178934e-16</v>
       </c>
     </row>
     <row r="45">
@@ -856,10 +856,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>3.727875394787168</v>
+        <v>3.737747882602732</v>
       </c>
       <c r="C45" t="n">
-        <v>2.719678329225385e-16</v>
+        <v>2.684840031006854e-16</v>
       </c>
     </row>
     <row r="46">
@@ -867,10 +867,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>3.745075119653346</v>
+        <v>3.754973317072596</v>
       </c>
       <c r="C46" t="n">
-        <v>2.628486083120868e-16</v>
+        <v>2.5819286212067e-16</v>
       </c>
     </row>
     <row r="47">
@@ -878,10 +878,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>3.762300554123211</v>
+        <v>3.772113052863507</v>
       </c>
       <c r="C47" t="n">
-        <v>2.91867816365509e-16</v>
+        <v>2.890038533599418e-16</v>
       </c>
     </row>
     <row r="48">
@@ -889,10 +889,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>3.779337451499375</v>
+        <v>3.789167089975462</v>
       </c>
       <c r="C48" t="n">
-        <v>3.544789034163626e-16</v>
+        <v>3.507828097076308e-16</v>
       </c>
     </row>
     <row r="49">
@@ -900,10 +900,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>3.788087286620635</v>
+        <v>3.797908355228826</v>
       </c>
       <c r="C49" t="n">
-        <v>4.810098911859897e-16</v>
+        <v>4.759943437887291e-16</v>
       </c>
     </row>
     <row r="50">
@@ -911,10 +911,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>3.796605735308717</v>
+        <v>3.806478223124282</v>
       </c>
       <c r="C50" t="n">
-        <v>5.670091657641794e-16</v>
+        <v>5.601806804701963e-16</v>
       </c>
     </row>
     <row r="51">
@@ -922,10 +922,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>3.805055625053636</v>
+        <v>3.814876693661827</v>
       </c>
       <c r="C51" t="n">
-        <v>9.998564293505917e-16</v>
+        <v>9.885024968092049e-16</v>
       </c>
     </row>
     <row r="52">
@@ -933,10 +933,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>3.813539794270136</v>
+        <v>3.823360862878328</v>
       </c>
       <c r="C52" t="n">
-        <v>1.473996998057802e-15</v>
+        <v>1.455954008309686e-15</v>
       </c>
     </row>
     <row r="53">
@@ -944,10 +944,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>3.817867577557342</v>
+        <v>3.82773149550501</v>
       </c>
       <c r="C53" t="n">
-        <v>3.342462714055643e-15</v>
+        <v>3.301098136528424e-15</v>
       </c>
     </row>
     <row r="54">
@@ -955,10 +955,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>3.82226391978771</v>
+        <v>3.832102128131692</v>
       </c>
       <c r="C54" t="n">
-        <v>4.837078256738197e-15</v>
+        <v>4.779921715937092e-15</v>
       </c>
     </row>
     <row r="55">
@@ -966,10 +966,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>3.830696669796837</v>
+        <v>3.840586297348192</v>
       </c>
       <c r="C55" t="n">
-        <v>4.789823108154632e-15</v>
+        <v>4.730563256964095e-15</v>
       </c>
     </row>
     <row r="56">
@@ -977,10 +977,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>3.837569703848993</v>
+        <v>3.847442191664556</v>
       </c>
       <c r="C56" t="n">
-        <v>3.353537244720823e-15</v>
+        <v>3.313855883867223e-15</v>
       </c>
     </row>
     <row r="57">
@@ -988,10 +988,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>3.844554146183789</v>
+        <v>3.854383784659876</v>
       </c>
       <c r="C57" t="n">
-        <v>1.511741919211284e-15</v>
+        <v>1.495101806302799e-15</v>
       </c>
     </row>
     <row r="58">
@@ -999,10 +999,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>3.846319538970252</v>
+        <v>3.856183456917921</v>
       </c>
       <c r="C58" t="n">
-        <v>1.098726725715921e-15</v>
+        <v>1.085340481446169e-15</v>
       </c>
     </row>
     <row r="59">
@@ -1010,10 +1010,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>3.847930674134597</v>
+        <v>3.857811731818057</v>
       </c>
       <c r="C59" t="n">
-        <v>1.448331496839116e-15</v>
+        <v>1.431066548342558e-15</v>
       </c>
     </row>
     <row r="60">
@@ -1021,10 +1021,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>3.84977319573212</v>
+        <v>3.859611404076103</v>
       </c>
       <c r="C60" t="n">
-        <v>5.509376112590356e-16</v>
+        <v>5.450636007850846e-16</v>
       </c>
     </row>
     <row r="61">
@@ -1032,10 +1032,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>3.852147049139162</v>
+        <v>3.86201096708683</v>
       </c>
       <c r="C61" t="n">
-        <v>3.618527985314262e-16</v>
+        <v>3.581882288624687e-16</v>
       </c>
     </row>
     <row r="62">
@@ -1043,10 +1043,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>3.856414843351097</v>
+        <v>3.866295901034558</v>
       </c>
       <c r="C62" t="n">
-        <v>1.983152673040768e-16</v>
+        <v>1.971062842593689e-16</v>
       </c>
     </row>
     <row r="63">
@@ -1054,10 +1054,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>3.865190388076044</v>
+        <v>3.875037166287922</v>
       </c>
       <c r="C63" t="n">
-        <v>1.407094219780546e-16</v>
+        <v>1.385677789025231e-16</v>
       </c>
     </row>
     <row r="64">
@@ -1065,10 +1065,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>3.866878652051449</v>
+        <v>3.876751139867013</v>
       </c>
       <c r="C64" t="n">
-        <v>3.090762688693393e-16</v>
+        <v>3.072800144254605e-16</v>
       </c>
     </row>
     <row r="65">
@@ -1076,10 +1076,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>3.869363913741131</v>
+        <v>3.879236401556695</v>
       </c>
       <c r="C65" t="n">
-        <v>8.91323370445977e-16</v>
+        <v>8.943294534121216e-16</v>
       </c>
     </row>
     <row r="66">
@@ -1087,10 +1087,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>3.873640277820963</v>
+        <v>3.883521335504422</v>
       </c>
       <c r="C66" t="n">
-        <v>1.518541078982041e-15</v>
+        <v>1.510896174605658e-15</v>
       </c>
     </row>
     <row r="67">
@@ -1098,10 +1098,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>3.878070899522913</v>
+        <v>3.887891968131104</v>
       </c>
       <c r="C67" t="n">
-        <v>2.669952569681947e-15</v>
+        <v>2.66298565903591e-15</v>
       </c>
     </row>
     <row r="68">
@@ -1109,10 +1109,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>3.881644534435317</v>
+        <v>3.891491312647195</v>
       </c>
       <c r="C68" t="n">
-        <v>2.603872027841916e-15</v>
+        <v>2.594347074747273e-15</v>
       </c>
     </row>
     <row r="69">
@@ -1120,10 +1120,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>3.88648650979625</v>
+        <v>3.896376137347605</v>
       </c>
       <c r="C69" t="n">
-        <v>4.373873157484459e-15</v>
+        <v>4.342277869562277e-15</v>
       </c>
     </row>
     <row r="70">
@@ -1131,10 +1131,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>3.890925701366096</v>
+        <v>3.900746769974288</v>
       </c>
       <c r="C70" t="n">
-        <v>4.696787990959614e-15</v>
+        <v>4.665078685670824e-15</v>
       </c>
     </row>
     <row r="71">
@@ -1142,10 +1142,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>3.899118495074151</v>
+        <v>3.908973843153924</v>
       </c>
       <c r="C71" t="n">
-        <v>5.728093037719883e-15</v>
+        <v>5.667696399183322e-15</v>
       </c>
     </row>
     <row r="72">
@@ -1153,10 +1153,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>3.908014017949633</v>
+        <v>3.917886505765197</v>
       </c>
       <c r="C72" t="n">
-        <v>8.12296633224141e-15</v>
+        <v>8.02150679776319e-15</v>
       </c>
     </row>
     <row r="73">
@@ -1164,10 +1164,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>3.916541036505611</v>
+        <v>3.926370674981698</v>
       </c>
       <c r="C73" t="n">
-        <v>7.035314820610429e-15</v>
+        <v>6.943963004245014e-15</v>
       </c>
     </row>
     <row r="74">
@@ -1175,10 +1175,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>3.925025205722112</v>
+        <v>3.934854844198199</v>
       </c>
       <c r="C74" t="n">
-        <v>3.360532903473596e-15</v>
+        <v>3.323199101633811e-15</v>
       </c>
     </row>
     <row r="75">
@@ -1186,10 +1186,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>3.933637922957044</v>
+        <v>3.943510410772608</v>
       </c>
       <c r="C75" t="n">
-        <v>1.691239849387027e-15</v>
+        <v>1.667824963704309e-15</v>
       </c>
     </row>
     <row r="76">
@@ -1197,10 +1197,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>3.942370618342513</v>
+        <v>3.952251676025972</v>
       </c>
       <c r="C76" t="n">
-        <v>1.273626570696637e-15</v>
+        <v>1.263578185569225e-15</v>
       </c>
     </row>
     <row r="77">
@@ -1208,10 +1208,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>3.950700529936895</v>
+        <v>3.960564447884564</v>
       </c>
       <c r="C77" t="n">
-        <v>2.691441148267813e-15</v>
+        <v>2.68099356528338e-15</v>
       </c>
     </row>
     <row r="78">
@@ -1219,10 +1219,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>3.959476074661841</v>
+        <v>3.969305713137928</v>
       </c>
       <c r="C78" t="n">
-        <v>2.827184402371781e-15</v>
+        <v>2.824761266158957e-15</v>
       </c>
     </row>
     <row r="79">
@@ -1230,10 +1230,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>3.967797416388328</v>
+        <v>3.977618484996519</v>
       </c>
       <c r="C79" t="n">
-        <v>1.925076796581731e-15</v>
+        <v>1.92976930400073e-15</v>
       </c>
     </row>
     <row r="80">
@@ -1241,10 +1241,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>3.97227945729765</v>
+        <v>3.982160514981111</v>
       </c>
       <c r="C80" t="n">
-        <v>9.895017164945274e-16</v>
+        <v>9.89074552212653e-16</v>
       </c>
     </row>
     <row r="81">
@@ -1252,10 +1252,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>3.976384424019573</v>
+        <v>3.986274051570929</v>
       </c>
       <c r="C81" t="n">
-        <v>5.671039059214417e-16</v>
+        <v>5.660945334588116e-16</v>
       </c>
     </row>
     <row r="82">
@@ -1263,10 +1263,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>3.984954291915029</v>
+        <v>3.994843919466384</v>
       </c>
       <c r="C82" t="n">
-        <v>4.430674396085379e-16</v>
+        <v>4.386250909686328e-16</v>
       </c>
     </row>
     <row r="83">
@@ -1274,10 +1274,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>4.002231145592266</v>
+        <v>4.012069353936249</v>
       </c>
       <c r="C83" t="n">
-        <v>2.042498762525351e-16</v>
+        <v>2.023375997172531e-16</v>
       </c>
     </row>
     <row r="84">
@@ -1285,10 +1285,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>4.010826723091408</v>
+        <v>4.020724920510658</v>
       </c>
       <c r="C84" t="n">
-        <v>1.007010852240823e-16</v>
+        <v>9.972557974350489e-17</v>
       </c>
     </row>
     <row r="85">
@@ -1296,10 +1296,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>4.019208053893163</v>
+        <v>4.02903769236925</v>
       </c>
       <c r="C85" t="n">
-        <v>7.19918925505636e-17</v>
+        <v>7.150246162686402e-17</v>
       </c>
     </row>
     <row r="86">
@@ -1307,10 +1307,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>4.036424918495132</v>
+        <v>4.046263126839114</v>
       </c>
       <c r="C86" t="n">
-        <v>5.080650479474628e-17</v>
+        <v>5.019798517398076e-17</v>
       </c>
     </row>
     <row r="87">
@@ -1318,10 +1318,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>4.053547514550251</v>
+        <v>4.063402862630025</v>
       </c>
       <c r="C87" t="n">
-        <v>4.135402775113644e-17</v>
+        <v>4.098528212452617e-17</v>
       </c>
     </row>
     <row r="88">
@@ -1329,10 +1329,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>4.070687250341162</v>
+        <v>4.080542598420934</v>
       </c>
       <c r="C88" t="n">
-        <v>4.934940515198958e-17</v>
+        <v>4.883673684260122e-17</v>
       </c>
     </row>
     <row r="89">
@@ -1340,10 +1340,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>4.075126441911007</v>
+        <v>4.084998929726572</v>
       </c>
       <c r="C89" t="n">
-        <v>8.611190649552494e-17</v>
+        <v>8.482971831743465e-17</v>
       </c>
     </row>
     <row r="90">
@@ -1351,10 +1351,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>4.078297293032326</v>
+        <v>4.08816978084789</v>
       </c>
       <c r="C90" t="n">
-        <v>9.480007927232933e-17</v>
+        <v>9.418200707513294e-17</v>
       </c>
     </row>
     <row r="91">
@@ -1362,10 +1362,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>4.087861265603653</v>
+        <v>4.097682334211846</v>
       </c>
       <c r="C91" t="n">
-        <v>1.07538381952445e-16</v>
+        <v>1.068799661025184e-16</v>
       </c>
     </row>
     <row r="92">
@@ -1373,10 +1373,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>4.09212905981559</v>
+        <v>4.101967268159573</v>
       </c>
       <c r="C92" t="n">
-        <v>1.580036162473406e-16</v>
+        <v>1.569246495798987e-16</v>
       </c>
     </row>
     <row r="93">
@@ -1384,10 +1384,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>4.096551111649645</v>
+        <v>4.106423599465209</v>
       </c>
       <c r="C93" t="n">
-        <v>3.202011922333789e-16</v>
+        <v>3.221315680224079e-16</v>
       </c>
     </row>
     <row r="94">
@@ -1395,10 +1395,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>4.105069560337727</v>
+        <v>4.114907768681709</v>
       </c>
       <c r="C94" t="n">
-        <v>3.788441027196959e-16</v>
+        <v>3.763307166558731e-16</v>
       </c>
     </row>
     <row r="95">
@@ -1406,10 +1406,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>4.113468030875272</v>
+        <v>4.123306239219255</v>
       </c>
       <c r="C95" t="n">
-        <v>2.94664079941383e-16</v>
+        <v>2.920899076373873e-16</v>
       </c>
     </row>
     <row r="96">
@@ -1417,10 +1417,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>4.122132167317578</v>
+        <v>4.131961805793665</v>
       </c>
       <c r="C96" t="n">
-        <v>1.32679728602463e-16</v>
+        <v>1.314524125817449e-16</v>
       </c>
     </row>
     <row r="97">
@@ -1428,10 +1428,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>4.12395754917931</v>
+        <v>4.133847176730665</v>
       </c>
       <c r="C97" t="n">
-        <v>6.260710923913479e-17</v>
+        <v>6.223957638022633e-17</v>
       </c>
     </row>
     <row r="98">
@@ -1439,10 +1439,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>4.126622778094797</v>
+        <v>4.136503835778257</v>
       </c>
       <c r="C98" t="n">
-        <v>3.80903717162987e-17</v>
+        <v>3.775611909262702e-17</v>
       </c>
     </row>
     <row r="99">
@@ -1450,10 +1450,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>4.13072774481672</v>
+        <v>4.140617372368075</v>
       </c>
       <c r="C99" t="n">
-        <v>2.029553033742138e-17</v>
+        <v>2.011288177418149e-17</v>
       </c>
     </row>
     <row r="100">
@@ -1461,10 +1461,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>4.139151924957952</v>
+        <v>4.149015842905621</v>
       </c>
       <c r="C100" t="n">
-        <v>1.245725016374817e-17</v>
+        <v>1.222544015383408e-17</v>
       </c>
     </row>
     <row r="101">
@@ -1472,10 +1472,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>4.156411638899399</v>
+        <v>4.166241277375486</v>
       </c>
       <c r="C101" t="n">
-        <v>7.46920102298628e-18</v>
+        <v>7.405055935537363e-18</v>
       </c>
     </row>
     <row r="102">
@@ -1483,10 +1483,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>4.170346244097408</v>
+        <v>4.180210162045077</v>
       </c>
       <c r="C102" t="n">
-        <v>6.500680683674812e-18</v>
+        <v>6.448712174078778e-18</v>
       </c>
     </row>
     <row r="103">
@@ -1494,10 +1494,10 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>4.190571132330683</v>
+        <v>4.200435050278351</v>
       </c>
       <c r="C103" t="n">
-        <v>6.80488191505735e-18</v>
+        <v>6.691209170427852e-18</v>
       </c>
     </row>
     <row r="104">
@@ -1505,10 +1505,10 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>4.199158139961929</v>
+        <v>4.209004918173807</v>
       </c>
       <c r="C104" t="n">
-        <v>1.194319456711478e-17</v>
+        <v>1.184291360125256e-17</v>
       </c>
     </row>
     <row r="105">
@@ -1516,10 +1516,10 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>4.207916544951084</v>
+        <v>4.21774618342717</v>
       </c>
       <c r="C105" t="n">
-        <v>1.601425008412331e-17</v>
+        <v>1.583317204874684e-17</v>
       </c>
     </row>
     <row r="106">
@@ -1527,10 +1527,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>4.216340725092316</v>
+        <v>4.226230352643671</v>
       </c>
       <c r="C106" t="n">
-        <v>1.921088172820836e-17</v>
+        <v>1.898473535552445e-17</v>
       </c>
     </row>
     <row r="107">
@@ -1538,10 +1538,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>4.221645473319603</v>
+        <v>4.231543670738853</v>
       </c>
       <c r="C107" t="n">
-        <v>1.87926993364013e-17</v>
+        <v>1.852582490842846e-17</v>
       </c>
     </row>
     <row r="108">
@@ -1549,10 +1549,10 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>4.225107699949367</v>
+        <v>4.234971617897036</v>
       </c>
       <c r="C108" t="n">
-        <v>1.854091643631275e-17</v>
+        <v>1.826778902746354e-17</v>
       </c>
     </row>
     <row r="109">
@@ -1560,10 +1560,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>4.230875221043007</v>
+        <v>4.24071342938699</v>
       </c>
       <c r="C109" t="n">
-        <v>1.70095456532939e-17</v>
+        <v>1.679413018513999e-17</v>
       </c>
     </row>
     <row r="110">
@@ -1571,10 +1571,10 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>4.23929940118424</v>
+        <v>4.249111899924536</v>
       </c>
       <c r="C110" t="n">
-        <v>1.651061537917021e-17</v>
+        <v>1.629085238083917e-17</v>
       </c>
     </row>
     <row r="111">
@@ -1582,10 +1582,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>4.24231599468344</v>
+        <v>4.2521970523669</v>
       </c>
       <c r="C111" t="n">
-        <v>1.633101698376212e-17</v>
+        <v>1.613929461050241e-17</v>
       </c>
     </row>
     <row r="112">
@@ -1593,10 +1593,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>4.24787783894759</v>
+        <v>4.257767466498946</v>
       </c>
       <c r="C112" t="n">
-        <v>1.658390727250815e-17</v>
+        <v>1.634603486535297e-17</v>
       </c>
     </row>
     <row r="113">
@@ -1604,10 +1604,10 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>4.252257041442167</v>
+        <v>4.262138099125628</v>
       </c>
       <c r="C113" t="n">
-        <v>1.675359247292068e-17</v>
+        <v>1.654250282468706e-17</v>
       </c>
     </row>
     <row r="114">
@@ -1615,10 +1615,10 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>4.25472516339606</v>
+        <v>4.264537662136355</v>
       </c>
       <c r="C114" t="n">
-        <v>1.762046801192903e-17</v>
+        <v>1.73644351809375e-17</v>
       </c>
     </row>
     <row r="115">
@@ -1626,10 +1626,10 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>4.25739896217944</v>
+        <v>4.267280019862901</v>
       </c>
       <c r="C115" t="n">
-        <v>1.74313072536957e-17</v>
+        <v>1.722094737847709e-17</v>
       </c>
     </row>
     <row r="116">
@@ -1637,10 +1637,10 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>4.259258623512755</v>
+        <v>4.269079692120946</v>
       </c>
       <c r="C116" t="n">
-        <v>1.754529544177779e-17</v>
+        <v>1.744665853566049e-17</v>
       </c>
     </row>
     <row r="117">
@@ -1648,10 +1648,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>4.2616239070519</v>
+        <v>4.271479255131674</v>
       </c>
       <c r="C117" t="n">
-        <v>1.688867697219569e-17</v>
+        <v>1.666889039488474e-17</v>
       </c>
     </row>
     <row r="118">
@@ -1659,10 +1659,10 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>4.263192192876769</v>
+        <v>4.273021831352856</v>
       </c>
       <c r="C118" t="n">
-        <v>1.661264318841143e-17</v>
+        <v>1.644492342883196e-17</v>
       </c>
     </row>
     <row r="119">
@@ -1670,10 +1670,10 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>4.271830619715387</v>
+        <v>4.281677397927266</v>
       </c>
       <c r="C119" t="n">
-        <v>1.295680840449945e-17</v>
+        <v>1.280690707599574e-17</v>
       </c>
     </row>
     <row r="120">
@@ -1681,10 +1681,10 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>4.27642406890735</v>
+        <v>4.286305126590811</v>
       </c>
       <c r="C120" t="n">
-        <v>1.222913901094545e-17</v>
+        <v>1.214430599324407e-17</v>
       </c>
     </row>
     <row r="121">
@@ -1692,10 +1692,10 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>4.28036620813926</v>
+        <v>4.29024726582272</v>
       </c>
       <c r="C121" t="n">
-        <v>9.55194172385205e-18</v>
+        <v>9.388363698010511e-18</v>
       </c>
     </row>
     <row r="122">
@@ -1703,10 +1703,10 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>4.28891036643103</v>
+        <v>4.298731435039221</v>
       </c>
       <c r="C122" t="n">
-        <v>7.159318846348281e-18</v>
+        <v>7.060146450031436e-18</v>
       </c>
     </row>
     <row r="123">
@@ -1714,10 +1714,10 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>4.293495245755098</v>
+        <v>4.303359163702766</v>
       </c>
       <c r="C123" t="n">
-        <v>7.333646917269315e-18</v>
+        <v>7.246969691220961e-18</v>
       </c>
     </row>
     <row r="124">
@@ -1725,10 +1725,10 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>4.297651631684394</v>
+        <v>4.307472700292585</v>
       </c>
       <c r="C124" t="n">
-        <v>8.998265060338614e-18</v>
+        <v>8.906542307943919e-18</v>
       </c>
     </row>
     <row r="125">
@@ -1736,10 +1736,10 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>4.300136893374075</v>
+        <v>4.309957961982268</v>
       </c>
       <c r="C125" t="n">
-        <v>1.202693480623733e-17</v>
+        <v>1.189580371221754e-17</v>
       </c>
     </row>
     <row r="126">
@@ -1747,10 +1747,10 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>4.300239731788821</v>
+        <v>4.310129359340176</v>
       </c>
       <c r="C126" t="n">
-        <v>1.163061060516841e-17</v>
+        <v>1.148099327186975e-17</v>
       </c>
     </row>
     <row r="127">
@@ -1758,10 +1758,10 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>4.30191942589633</v>
+        <v>4.311757634240313</v>
       </c>
       <c r="C127" t="n">
-        <v>1.847304764352325e-17</v>
+        <v>1.831311873534736e-17</v>
       </c>
     </row>
     <row r="128">
@@ -1769,10 +1769,10 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>4.306187220108267</v>
+        <v>4.31604256818804</v>
       </c>
       <c r="C128" t="n">
-        <v>3.302366824557204e-17</v>
+        <v>3.277778891578815e-17</v>
       </c>
     </row>
     <row r="129">
@@ -1780,10 +1780,10 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>4.308783890080591</v>
+        <v>4.318613528556677</v>
       </c>
       <c r="C129" t="n">
-        <v>3.543223376153795e-17</v>
+        <v>3.520632185317245e-17</v>
       </c>
     </row>
     <row r="130">
@@ -1791,10 +1791,10 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>4.310729250092858</v>
+        <v>4.320584598172632</v>
       </c>
       <c r="C130" t="n">
-        <v>3.671605781410816e-17</v>
+        <v>3.633855630324419e-17</v>
       </c>
     </row>
     <row r="131">
@@ -1802,10 +1802,10 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>4.31302597468884</v>
+        <v>4.322898462504404</v>
       </c>
       <c r="C131" t="n">
-        <v>4.129989522456476e-17</v>
+        <v>4.072591381887238e-17</v>
       </c>
     </row>
     <row r="132">
@@ -1813,10 +1813,10 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>4.315699773472222</v>
+        <v>4.325555121551995</v>
       </c>
       <c r="C132" t="n">
-        <v>4.604173404085139e-17</v>
+        <v>4.564699812463558e-17</v>
       </c>
     </row>
     <row r="133">
@@ -1824,10 +1824,10 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>4.318107906350845</v>
+        <v>4.327954684562723</v>
       </c>
       <c r="C133" t="n">
-        <v>4.762160335303335e-17</v>
+        <v>4.713232243124613e-17</v>
       </c>
     </row>
     <row r="134">
@@ -1835,10 +1835,10 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>4.320910253152659</v>
+        <v>4.330782740968223</v>
       </c>
       <c r="C134" t="n">
-        <v>4.506344305792048e-17</v>
+        <v>4.457540283328573e-17</v>
       </c>
     </row>
     <row r="135">
@@ -1846,10 +1846,10 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>4.323318386031281</v>
+        <v>4.33318230397895</v>
       </c>
       <c r="C135" t="n">
-        <v>4.024877594717974e-17</v>
+        <v>3.992230715413521e-17</v>
       </c>
     </row>
     <row r="136">
@@ -1857,10 +1857,10 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>4.327757577601127</v>
+        <v>4.337638635284587</v>
       </c>
       <c r="C136" t="n">
-        <v>3.115370597202155e-17</v>
+        <v>3.092666097279062e-17</v>
       </c>
     </row>
     <row r="137">
@@ -1868,10 +1868,10 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>4.331931103266214</v>
+        <v>4.341752171874406</v>
       </c>
       <c r="C137" t="n">
-        <v>2.124765999018071e-17</v>
+        <v>2.131384056642814e-17</v>
       </c>
     </row>
     <row r="138">
@@ -1879,10 +1879,10 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>4.340535250633251</v>
+        <v>4.350407738448815</v>
       </c>
       <c r="C138" t="n">
-        <v>1.367889120796063e-17</v>
+        <v>1.351342992497714e-17</v>
       </c>
     </row>
     <row r="139">
@@ -1890,10 +1890,10 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>4.344845894184665</v>
+        <v>4.354692672396543</v>
       </c>
       <c r="C139" t="n">
-        <v>1.076128682802489e-17</v>
+        <v>1.060655113993345e-17</v>
       </c>
     </row>
     <row r="140">
@@ -1901,10 +1901,10 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>4.348762323812888</v>
+        <v>4.358634811628452</v>
       </c>
       <c r="C140" t="n">
-        <v>8.51737814880214e-18</v>
+        <v>8.409180973316274e-18</v>
       </c>
     </row>
     <row r="141">
@@ -1912,10 +1912,10 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>4.357083665539375</v>
+        <v>4.366947583487043</v>
       </c>
       <c r="C141" t="n">
-        <v>6.72716899231435e-18</v>
+        <v>6.672372978482421e-18</v>
       </c>
     </row>
     <row r="142">
@@ -1923,10 +1923,10 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>4.362054188918739</v>
+        <v>4.371918106866407</v>
       </c>
       <c r="C142" t="n">
-        <v>7.232826496460591e-18</v>
+        <v>7.13468235451876e-18</v>
       </c>
     </row>
     <row r="143">
@@ -1934,10 +1934,10 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>4.365250749643743</v>
+        <v>4.375088957987725</v>
       </c>
       <c r="C143" t="n">
-        <v>2.634705095117842e-17</v>
+        <v>2.615851811933268e-17</v>
       </c>
     </row>
     <row r="144">
@@ -1945,10 +1945,10 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>4.367855989483961</v>
+        <v>4.377745617035317</v>
       </c>
       <c r="C144" t="n">
-        <v>4.891018537745305e-17</v>
+        <v>4.854505737525728e-17</v>
       </c>
     </row>
     <row r="145">
@@ -1956,10 +1956,10 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>4.369681371345694</v>
+        <v>4.379545289293363</v>
       </c>
       <c r="C145" t="n">
-        <v>5.358262362187735e-17</v>
+        <v>5.321856924710959e-17</v>
       </c>
     </row>
     <row r="146">
@@ -1967,10 +1967,10 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>4.370624056814194</v>
+        <v>4.380487974761863</v>
       </c>
       <c r="C146" t="n">
-        <v>5.594734731348666e-17</v>
+        <v>5.566533811412612e-17</v>
       </c>
     </row>
     <row r="147">
@@ -1978,10 +1978,10 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>4.371001131001594</v>
+        <v>4.380830769477681</v>
       </c>
       <c r="C147" t="n">
-        <v>5.45608711064988e-17</v>
+        <v>5.437148137291647e-17</v>
       </c>
     </row>
     <row r="148">
@@ -1989,10 +1989,10 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>4.371241087302666</v>
+        <v>4.381087865514544</v>
       </c>
       <c r="C148" t="n">
-        <v>5.448800218894749e-17</v>
+        <v>5.415864979254446e-17</v>
       </c>
     </row>
     <row r="149">
@@ -2000,10 +2000,10 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>4.37310074863598</v>
+        <v>4.382973236451544</v>
       </c>
       <c r="C149" t="n">
-        <v>6.649799367222194e-17</v>
+        <v>6.602298110283285e-17</v>
       </c>
     </row>
     <row r="150">
@@ -2011,10 +2011,10 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>4.37479758247928</v>
+        <v>4.384687210030635</v>
       </c>
       <c r="C150" t="n">
-        <v>6.845850401754419e-17</v>
+        <v>6.814634518285149e-17</v>
       </c>
     </row>
     <row r="151">
@@ -2022,10 +2022,10 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>4.376545835529954</v>
+        <v>4.386401183609727</v>
       </c>
       <c r="C151" t="n">
-        <v>6.763186188686862e-17</v>
+        <v>6.710122182636677e-17</v>
       </c>
     </row>
     <row r="152">
@@ -2033,10 +2033,10 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>4.378156970694299</v>
+        <v>4.388029458509863</v>
       </c>
       <c r="C152" t="n">
-        <v>6.735796647728286e-17</v>
+        <v>6.715796275173237e-17</v>
       </c>
     </row>
     <row r="153">
@@ -2044,10 +2044,10 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>4.379236774049127</v>
+        <v>4.389057842657317</v>
       </c>
       <c r="C153" t="n">
-        <v>6.794067027941589e-17</v>
+        <v>6.733055098885418e-17</v>
       </c>
     </row>
     <row r="154">
@@ -2055,10 +2055,10 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>4.379845234669704</v>
+        <v>4.389743432088954</v>
       </c>
       <c r="C154" t="n">
-        <v>6.669273598431072e-17</v>
+        <v>6.614323805989427e-17</v>
       </c>
     </row>
     <row r="155">
@@ -2066,10 +2066,10 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>4.382493323849399</v>
+        <v>4.392314392457591</v>
       </c>
       <c r="C155" t="n">
-        <v>6.419506614252991e-17</v>
+        <v>6.372213242624845e-17</v>
       </c>
     </row>
     <row r="156">
@@ -2077,10 +2077,10 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>4.386743978325545</v>
+        <v>4.396599326405318</v>
       </c>
       <c r="C156" t="n">
-        <v>5.185454364122101e-17</v>
+        <v>5.1534633461579e-17</v>
       </c>
     </row>
     <row r="157">
@@ -2088,10 +2088,10 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>4.391003202669586</v>
+        <v>4.400884260353045</v>
       </c>
       <c r="C157" t="n">
-        <v>3.699707397345093e-17</v>
+        <v>3.673370262293173e-17</v>
       </c>
     </row>
     <row r="158">
@@ -2099,10 +2099,10 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>4.395073889919927</v>
+        <v>4.404912098263909</v>
       </c>
       <c r="C158" t="n">
-        <v>2.618957413224432e-17</v>
+        <v>2.592405261701959e-17</v>
       </c>
     </row>
     <row r="159">
@@ -2110,10 +2110,10 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>4.396290811161082</v>
+        <v>4.406111879769273</v>
       </c>
       <c r="C159" t="n">
-        <v>2.703499888211527e-17</v>
+        <v>2.683699922281435e-17</v>
       </c>
     </row>
     <row r="160">
@@ -2121,10 +2121,10 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>4.399607350036622</v>
+        <v>4.4094541282485</v>
       </c>
       <c r="C160" t="n">
-        <v>2.031613126076504e-17</v>
+        <v>2.012741658039922e-17</v>
       </c>
     </row>
     <row r="161">
@@ -2132,10 +2132,10 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>4.403952273059619</v>
+        <v>4.413824760875183</v>
       </c>
       <c r="C161" t="n">
-        <v>1.965682545716755e-17</v>
+        <v>1.94682885575311e-17</v>
       </c>
     </row>
     <row r="162">
@@ -2143,10 +2143,10 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>4.406326126466659</v>
+        <v>4.41622432388591</v>
       </c>
       <c r="C162" t="n">
-        <v>1.860854614655216e-17</v>
+        <v>1.851803053373003e-17</v>
       </c>
     </row>
     <row r="163">
@@ -2154,10 +2154,10 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>4.408974215646356</v>
+        <v>4.418795284254546</v>
       </c>
       <c r="C163" t="n">
-        <v>1.682278600783253e-17</v>
+        <v>1.666703740673736e-17</v>
       </c>
     </row>
     <row r="164">
@@ -2165,10 +2165,10 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>4.411759422712378</v>
+        <v>4.421623340660047</v>
       </c>
       <c r="C164" t="n">
-        <v>1.531336187063609e-17</v>
+        <v>1.520864723943059e-17</v>
       </c>
     </row>
     <row r="165">
@@ -2176,10 +2176,10 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>4.41349053602726</v>
+        <v>4.423337314239138</v>
       </c>
       <c r="C165" t="n">
-        <v>1.440306456234013e-17</v>
+        <v>1.431145267196991e-17</v>
       </c>
     </row>
     <row r="166">
@@ -2187,10 +2187,10 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>4.414321813213119</v>
+        <v>4.424194301028683</v>
       </c>
       <c r="C166" t="n">
-        <v>1.372259070085091e-17</v>
+        <v>1.358185370523991e-17</v>
       </c>
     </row>
     <row r="167">
@@ -2198,10 +2198,10 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>4.419515153157765</v>
+        <v>4.429336221765956</v>
       </c>
       <c r="C167" t="n">
-        <v>1.106457906589392e-17</v>
+        <v>1.101744322445058e-17</v>
       </c>
     </row>
     <row r="168">
@@ -2209,10 +2209,10 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>4.421511932377406</v>
+        <v>4.431392990060865</v>
       </c>
       <c r="C168" t="n">
-        <v>9.847268026044708e-18</v>
+        <v>9.748019461850625e-18</v>
       </c>
     </row>
     <row r="169">
@@ -2220,10 +2220,10 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>4.430664551289752</v>
+        <v>4.440477050030048</v>
       </c>
       <c r="C169" t="n">
-        <v>5.846929325293076e-18</v>
+        <v>5.806568576459523e-18</v>
       </c>
     </row>
     <row r="170">
@@ -2231,10 +2231,10 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>4.447624319854858</v>
+        <v>4.457445388463049</v>
       </c>
       <c r="C170" t="n">
-        <v>3.81612351507356e-18</v>
+        <v>3.762675940830557e-18</v>
       </c>
     </row>
     <row r="171">
@@ -2242,10 +2242,10 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>4.464926883135782</v>
+        <v>4.474756521611869</v>
       </c>
       <c r="C171" t="n">
-        <v>3.696379771729023e-18</v>
+        <v>3.63133327626726e-18</v>
       </c>
     </row>
     <row r="172">
@@ -2253,10 +2253,10 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>4.482066618926692</v>
+        <v>4.491896257402779</v>
       </c>
       <c r="C172" t="n">
-        <v>4.343508225845143e-18</v>
+        <v>4.298473001942786e-18</v>
       </c>
     </row>
     <row r="173">
@@ -2264,10 +2264,10 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>4.490182283823687</v>
+        <v>4.500037631903461</v>
       </c>
       <c r="C173" t="n">
-        <v>5.267903265904874e-18</v>
+        <v>5.240141718112244e-18</v>
       </c>
     </row>
     <row r="174">
@@ -2275,10 +2275,10 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>4.493233156794469</v>
+        <v>4.503122784345824</v>
       </c>
       <c r="C174" t="n">
-        <v>5.710505936733346e-18</v>
+        <v>5.627983299657172e-18</v>
       </c>
     </row>
     <row r="175">
@@ -2286,10 +2286,10 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>4.499292053396556</v>
+        <v>4.509121691872643</v>
       </c>
       <c r="C175" t="n">
-        <v>7.47548464353486e-18</v>
+        <v>7.374740195361798e-18</v>
       </c>
     </row>
     <row r="176">
@@ -2297,10 +2297,10 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>4.507699093801998</v>
+        <v>4.517520162410189</v>
       </c>
       <c r="C176" t="n">
-        <v>1.050751266610625e-17</v>
+        <v>1.040204788691091e-17</v>
       </c>
     </row>
     <row r="177">
@@ -2308,10 +2308,10 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>4.512069726428679</v>
+        <v>4.521890795036872</v>
       </c>
       <c r="C177" t="n">
-        <v>1.207824972869262e-17</v>
+        <v>1.196642338049669e-17</v>
       </c>
     </row>
     <row r="178">
@@ -2319,10 +2319,10 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>4.516303241169035</v>
+        <v>4.526175728984599</v>
       </c>
       <c r="C178" t="n">
-        <v>1.429744382620769e-17</v>
+        <v>1.418976419765537e-17</v>
       </c>
     </row>
     <row r="179">
@@ -2330,10 +2330,10 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>4.520571035380971</v>
+        <v>4.530460662932327</v>
       </c>
       <c r="C179" t="n">
-        <v>1.850337614542498e-17</v>
+        <v>1.832090002831362e-17</v>
       </c>
     </row>
     <row r="180">
@@ -2341,10 +2341,10 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>4.520622454588343</v>
+        <v>4.534574199522145</v>
       </c>
       <c r="C180" t="n">
-        <v>1.83892199858054e-17</v>
+        <v>2.669278220332521e-17</v>
       </c>
     </row>
     <row r="181">
@@ -2352,10 +2352,10 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>4.524727421310266</v>
+        <v>4.539030530827781</v>
       </c>
       <c r="C181" t="n">
-        <v>2.689563652950823e-17</v>
+        <v>3.314738803137686e-17</v>
       </c>
     </row>
     <row r="182">
@@ -2363,10 +2363,10 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>4.529132333408531</v>
+        <v>4.543486862133419</v>
       </c>
       <c r="C182" t="n">
-        <v>3.330113911903025e-17</v>
+        <v>4.173830389700616e-17</v>
       </c>
     </row>
     <row r="183">
@@ -2374,10 +2374,10 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>4.533597234582063</v>
+        <v>4.545800726465191</v>
       </c>
       <c r="C183" t="n">
-        <v>4.220305579109066e-17</v>
+        <v>4.822535246289969e-17</v>
       </c>
     </row>
     <row r="184">
@@ -2385,10 +2385,10 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>4.535979657856999</v>
+        <v>4.549914263055009</v>
       </c>
       <c r="C184" t="n">
-        <v>4.85443146652968e-17</v>
+        <v>4.553465887652511e-17</v>
       </c>
     </row>
     <row r="185">
@@ -2396,10 +2396,10 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>4.540033205371549</v>
+        <v>4.551628236634101</v>
       </c>
       <c r="C185" t="n">
-        <v>4.581293281888245e-17</v>
+        <v>4.430445452411456e-17</v>
       </c>
     </row>
     <row r="186">
@@ -2407,10 +2407,10 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>4.541790028290118</v>
+        <v>4.553942100965873</v>
       </c>
       <c r="C186" t="n">
-        <v>4.451748586418349e-17</v>
+        <v>4.091308026573354e-17</v>
       </c>
     </row>
     <row r="187">
@@ -2418,10 +2418,10 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>4.54406961315031</v>
+        <v>4.558912624345237</v>
       </c>
       <c r="C187" t="n">
-        <v>4.112706713981882e-17</v>
+        <v>3.41890769957932e-17</v>
       </c>
     </row>
     <row r="188">
@@ -2429,10 +2429,10 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>4.54908298586915</v>
+        <v>4.562940462256101</v>
       </c>
       <c r="C188" t="n">
-        <v>3.440539798643321e-17</v>
+        <v>3.150781289649211e-17</v>
       </c>
     </row>
     <row r="189">
@@ -2440,10 +2440,10 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>4.553067974440538</v>
+        <v>4.56688260148801</v>
       </c>
       <c r="C189" t="n">
-        <v>3.171997876081895e-17</v>
+        <v>2.626006900202674e-17</v>
       </c>
     </row>
     <row r="190">
@@ -2451,10 +2451,10 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>4.557044393144028</v>
+        <v>4.571424631472602</v>
       </c>
       <c r="C190" t="n">
-        <v>2.639169331712052e-17</v>
+        <v>2.018628011985755e-17</v>
       </c>
     </row>
     <row r="191">
@@ -2462,10 +2462,10 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>4.561577853260723</v>
+        <v>4.575623866741375</v>
       </c>
       <c r="C191" t="n">
-        <v>2.030202177875014e-17</v>
+        <v>1.644221436776995e-17</v>
       </c>
     </row>
     <row r="192">
@@ -2473,10 +2473,10 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>4.56575137892581</v>
+        <v>4.580080198047011</v>
       </c>
       <c r="C192" t="n">
-        <v>1.66025633107536e-17</v>
+        <v>1.19129050049129e-17</v>
       </c>
     </row>
     <row r="193">
@@ -2484,10 +2484,10 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>4.570207710231447</v>
+        <v>4.58402233727892</v>
       </c>
       <c r="C193" t="n">
-        <v>1.180744421519612e-17</v>
+        <v>7.903010081274116e-18</v>
       </c>
     </row>
     <row r="194">
@@ -2495,10 +2495,10 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>4.570233419835134</v>
+        <v>4.588478668584557</v>
       </c>
       <c r="C194" t="n">
-        <v>1.218293467588562e-17</v>
+        <v>4.713560389013748e-18</v>
       </c>
     </row>
     <row r="195">
@@ -2506,10 +2506,10 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>4.574141279595461</v>
+        <v>4.588650065942466</v>
       </c>
       <c r="C195" t="n">
-        <v>7.975743009888697e-18</v>
+        <v>4.740767487899217e-18</v>
       </c>
     </row>
     <row r="196">
@@ -2517,10 +2517,10 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>4.578657599976365</v>
+        <v>4.592078013100648</v>
       </c>
       <c r="C196" t="n">
-        <v>4.753124682441444e-18</v>
+        <v>3.488811555566945e-18</v>
       </c>
     </row>
     <row r="197">
@@ -2528,10 +2528,10 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>4.578820427466379</v>
+        <v>4.593277794606012</v>
       </c>
       <c r="C197" t="n">
-        <v>4.799271942053255e-18</v>
+        <v>3.270993133681092e-18</v>
       </c>
     </row>
     <row r="198">
@@ -2539,10 +2539,10 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>4.582256944492457</v>
+        <v>4.593534890642876</v>
       </c>
       <c r="C198" t="n">
-        <v>3.527621263034587e-18</v>
+        <v>3.067334063731902e-18</v>
       </c>
     </row>
     <row r="199">
@@ -2550,10 +2550,10 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>4.583388167054657</v>
+        <v>4.596534344406285</v>
       </c>
       <c r="C199" t="n">
-        <v>3.319606733783284e-18</v>
+        <v>5.061158117918032e-18</v>
       </c>
     </row>
     <row r="200">
@@ -2561,10 +2561,10 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>4.583662402827311</v>
+        <v>4.597819824590603</v>
       </c>
       <c r="C200" t="n">
-        <v>3.105411174539757e-18</v>
+        <v>3.87063989366894e-18</v>
       </c>
     </row>
     <row r="201">
@@ -2572,10 +2572,10 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>4.586636146987034</v>
+        <v>4.601504867785649</v>
       </c>
       <c r="C201" t="n">
-        <v>5.096927234200311e-18</v>
+        <v>5.91943946837096e-18</v>
       </c>
     </row>
     <row r="202">
@@ -2583,10 +2583,10 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>4.58796447651083</v>
+        <v>4.603133142685785</v>
       </c>
       <c r="C202" t="n">
-        <v>3.907758019779501e-18</v>
+        <v>5.552085786236817e-18</v>
       </c>
     </row>
     <row r="203">
@@ -2594,10 +2594,10 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>4.591649519705875</v>
+        <v>4.604932814943831</v>
       </c>
       <c r="C203" t="n">
-        <v>5.978103175364816e-18</v>
+        <v>5.261456334949956e-18</v>
       </c>
     </row>
     <row r="204">
@@ -2605,10 +2605,10 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>4.593303504209699</v>
+        <v>4.606646788522922</v>
       </c>
       <c r="C204" t="n">
-        <v>5.609072451272197e-18</v>
+        <v>5.136703607800774e-18</v>
       </c>
     </row>
     <row r="205">
@@ -2616,10 +2616,10 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>4.595068896996162</v>
+        <v>4.608446460780968</v>
       </c>
       <c r="C205" t="n">
-        <v>5.315126844348844e-18</v>
+        <v>4.955666069277447e-18</v>
       </c>
     </row>
     <row r="206">
@@ -2627,10 +2627,10 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>4.596757160971567</v>
+        <v>4.610160434360059</v>
       </c>
       <c r="C206" t="n">
-        <v>5.197667116984587e-18</v>
+        <v>4.641571975133525e-18</v>
       </c>
     </row>
     <row r="207">
@@ -2638,10 +2638,10 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>4.598633962040672</v>
+        <v>4.611617311902286</v>
       </c>
       <c r="C207" t="n">
-        <v>4.991268862570789e-18</v>
+        <v>4.647873997028225e-18</v>
       </c>
     </row>
     <row r="208">
@@ -2649,10 +2649,10 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>4.600339365751868</v>
+        <v>4.615987944528968</v>
       </c>
       <c r="C208" t="n">
-        <v>4.675041475518447e-18</v>
+        <v>2.651827595180773e-18</v>
       </c>
     </row>
     <row r="209">
@@ -2660,10 +2660,10 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>4.601719114483036</v>
+        <v>4.620529974513559</v>
       </c>
       <c r="C209" t="n">
-        <v>4.692060891384215e-18</v>
+        <v>1.123834794909259e-18</v>
       </c>
     </row>
     <row r="210">
@@ -2671,10 +2671,10 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>4.606132596449195</v>
+        <v>4.622929537524286</v>
       </c>
       <c r="C210" t="n">
-        <v>2.674561233466798e-18</v>
+        <v>7.091321477361212e-19</v>
       </c>
     </row>
     <row r="211">
@@ -2682,10 +2682,10 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>4.610666056565891</v>
+        <v>4.623272332240105</v>
       </c>
       <c r="C211" t="n">
-        <v>1.133058762907687e-18</v>
+        <v>9.903585568609016e-19</v>
       </c>
     </row>
     <row r="212">
@@ -2693,10 +2693,10 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>4.613091329180303</v>
+        <v>4.623786524313832</v>
       </c>
       <c r="C212" t="n">
-        <v>7.187043504555084e-19</v>
+        <v>6.205101873849619e-19</v>
       </c>
     </row>
     <row r="213">
@@ -2704,10 +2704,10 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>4.613451263631914</v>
+        <v>4.625586196571877</v>
       </c>
       <c r="C213" t="n">
-        <v>1.000027923250837e-18</v>
+        <v>4.732721517956119e-19</v>
       </c>
     </row>
     <row r="214">
@@ -2715,10 +2715,10 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>4.613896896762476</v>
+        <v>4.628928445051105</v>
       </c>
       <c r="C214" t="n">
-        <v>6.242403441287601e-19</v>
+        <v>4.014994425157353e-19</v>
       </c>
     </row>
     <row r="215">
@@ -2726,10 +2726,10 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>4.615696569020522</v>
+        <v>4.631670802777651</v>
       </c>
       <c r="C215" t="n">
-        <v>4.804092816670851e-19</v>
+        <v>3.666224511611933e-19</v>
       </c>
     </row>
     <row r="216">
@@ -2737,10 +2737,10 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>4.619038817499749</v>
+        <v>4.64049776670997</v>
       </c>
       <c r="C216" t="n">
-        <v>4.093695937440749e-19</v>
+        <v>3.349952212722806e-19</v>
       </c>
     </row>
     <row r="217">
@@ -2748,10 +2748,10 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>4.621798314962087</v>
+        <v>4.649667525358106</v>
       </c>
       <c r="C217" t="n">
-        <v>3.698456632090985e-19</v>
+        <v>3.801210638544855e-19</v>
       </c>
     </row>
     <row r="218">
@@ -2759,10 +2759,10 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>4.630650988498092</v>
+        <v>4.658494489290425</v>
       </c>
       <c r="C218" t="n">
-        <v>3.361673766349529e-19</v>
+        <v>3.558275106103275e-19</v>
       </c>
     </row>
     <row r="219">
@@ -2770,10 +2770,10 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>4.639795037542543</v>
+        <v>4.667921343975426</v>
       </c>
       <c r="C219" t="n">
-        <v>3.872534726200858e-19</v>
+        <v>3.700080670094374e-19</v>
       </c>
     </row>
     <row r="220">
@@ -2781,32 +2781,10 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>4.64860486173907</v>
+        <v>4.671263592454653</v>
       </c>
       <c r="C220" t="n">
-        <v>3.603654961851699e-19</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>4.658074565763548</v>
-      </c>
-      <c r="C221" t="n">
-        <v>3.781847331277791e-19</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>4.661373964903298</v>
-      </c>
-      <c r="C222" t="n">
-        <v>4.242029161958148e-19</v>
+        <v>4.163858005399657e-19</v>
       </c>
     </row>
   </sheetData>

--- a/legendre_out/DATA/p2/p2IntegrandDataPoints1.500000.xlsx
+++ b/legendre_out/DATA/p2/p2IntegrandDataPoints1.500000.xlsx
@@ -386,7 +386,7 @@
         <v>3.434374559103622</v>
       </c>
       <c r="C2" t="n">
-        <v>1.101601191265598e-15</v>
+        <v>1.081813769444299e-15</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>3.43865949305135</v>
       </c>
       <c r="C3" t="n">
-        <v>1.657552448603415e-15</v>
+        <v>1.658988026490037e-15</v>
       </c>
     </row>
     <row r="4">
@@ -408,7 +408,7 @@
         <v>3.440287767951486</v>
       </c>
       <c r="C4" t="n">
-        <v>1.955779156744036e-15</v>
+        <v>1.917443020193501e-15</v>
       </c>
     </row>
     <row r="5">
@@ -419,7 +419,7 @@
         <v>3.443801413788623</v>
       </c>
       <c r="C5" t="n">
-        <v>2.68021413376645e-15</v>
+        <v>2.650025714731142e-15</v>
       </c>
     </row>
     <row r="6">
@@ -430,7 +430,7 @@
         <v>3.445601086046668</v>
       </c>
       <c r="C6" t="n">
-        <v>2.823744511238504e-15</v>
+        <v>2.851851990764541e-15</v>
       </c>
     </row>
     <row r="7">
@@ -441,7 +441,7 @@
         <v>3.446372374157259</v>
       </c>
       <c r="C7" t="n">
-        <v>2.827574137298416e-15</v>
+        <v>2.866182830669213e-15</v>
       </c>
     </row>
     <row r="8">
@@ -452,7 +452,7 @@
         <v>3.450743006783942</v>
       </c>
       <c r="C8" t="n">
-        <v>3.131671219592661e-15</v>
+        <v>3.106787815518894e-15</v>
       </c>
     </row>
     <row r="9">
@@ -463,7 +463,7 @@
         <v>3.454170953942123</v>
       </c>
       <c r="C9" t="n">
-        <v>2.992649088508632e-15</v>
+        <v>2.979118106965915e-15</v>
       </c>
     </row>
     <row r="10">
@@ -474,7 +474,7 @@
         <v>3.454856543373759</v>
       </c>
       <c r="C10" t="n">
-        <v>2.717955471931592e-15</v>
+        <v>2.733030378830296e-15</v>
       </c>
     </row>
     <row r="11">
@@ -485,7 +485,7 @@
         <v>3.459227176000442</v>
       </c>
       <c r="C11" t="n">
-        <v>2.616320708001106e-15</v>
+        <v>2.666466058791791e-15</v>
       </c>
     </row>
     <row r="12">
@@ -496,7 +496,7 @@
         <v>3.463512109948169</v>
       </c>
       <c r="C12" t="n">
-        <v>2.168264839152551e-15</v>
+        <v>2.178114653268762e-15</v>
       </c>
     </row>
     <row r="13">
@@ -507,7 +507,7 @@
         <v>3.467882742574851</v>
       </c>
       <c r="C13" t="n">
-        <v>1.601536694622664e-15</v>
+        <v>1.655193030465099e-15</v>
       </c>
     </row>
     <row r="14">
@@ -518,7 +518,7 @@
         <v>3.686414373908955</v>
       </c>
       <c r="C14" t="n">
-        <v>2.563877924820697e-16</v>
+        <v>2.579418518040803e-16</v>
       </c>
     </row>
     <row r="15">
@@ -529,7 +529,7 @@
         <v>3.687271360698501</v>
       </c>
       <c r="C15" t="n">
-        <v>3.493660269224554e-16</v>
+        <v>3.504920894265913e-16</v>
       </c>
     </row>
     <row r="16">
@@ -540,7 +540,7 @@
         <v>3.689071032956547</v>
       </c>
       <c r="C16" t="n">
-        <v>4.031301048990386e-16</v>
+        <v>4.10951644072527e-16</v>
       </c>
     </row>
     <row r="17">
@@ -551,7 +551,7 @@
         <v>3.689928019746092</v>
       </c>
       <c r="C17" t="n">
-        <v>4.729898860458843e-16</v>
+        <v>4.664857212603177e-16</v>
       </c>
     </row>
     <row r="18">
@@ -562,7 +562,7 @@
         <v>3.690699307856684</v>
       </c>
       <c r="C18" t="n">
-        <v>5.660219461289875e-16</v>
+        <v>5.696962493106539e-16</v>
       </c>
     </row>
     <row r="19">
@@ -573,7 +573,7 @@
         <v>3.691641993325183</v>
       </c>
       <c r="C19" t="n">
-        <v>6.308800613258099e-16</v>
+        <v>6.289702921519971e-16</v>
       </c>
     </row>
     <row r="20">
@@ -584,7 +584,7 @@
         <v>3.692498980114729</v>
       </c>
       <c r="C20" t="n">
-        <v>9.488821839651515e-16</v>
+        <v>9.522396453417372e-16</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>3.693270268225319</v>
       </c>
       <c r="C21" t="n">
-        <v>2.701036857440992e-15</v>
+        <v>2.700443227974239e-15</v>
       </c>
     </row>
     <row r="22">
@@ -606,7 +606,7 @@
         <v>3.694127255014865</v>
       </c>
       <c r="C22" t="n">
-        <v>4.240303425432035e-15</v>
+        <v>4.265627828881667e-15</v>
       </c>
     </row>
     <row r="23">
@@ -617,7 +617,7 @@
         <v>3.695841228593956</v>
       </c>
       <c r="C23" t="n">
-        <v>6.270672323963449e-15</v>
+        <v>6.288111188268507e-15</v>
       </c>
     </row>
     <row r="24">
@@ -628,7 +628,7 @@
         <v>3.697555202173048</v>
       </c>
       <c r="C24" t="n">
-        <v>6.269298906150121e-15</v>
+        <v>6.254641005137232e-15</v>
       </c>
     </row>
     <row r="25">
@@ -639,7 +639,7 @@
         <v>3.699354874431093</v>
       </c>
       <c r="C25" t="n">
-        <v>5.750692397524558e-15</v>
+        <v>5.750551615486812e-15</v>
       </c>
     </row>
     <row r="26">
@@ -650,7 +650,7 @@
         <v>3.701068848010184</v>
       </c>
       <c r="C26" t="n">
-        <v>5.39635141195921e-15</v>
+        <v>5.40233841225531e-15</v>
       </c>
     </row>
     <row r="27">
@@ -661,7 +661,7 @@
         <v>3.70286852026823</v>
       </c>
       <c r="C27" t="n">
-        <v>5.350025053424451e-15</v>
+        <v>5.341318170426984e-15</v>
       </c>
     </row>
     <row r="28">
@@ -672,7 +672,7 @@
         <v>3.703468411020912</v>
       </c>
       <c r="C28" t="n">
-        <v>5.41062686572805e-15</v>
+        <v>5.427611300238256e-15</v>
       </c>
     </row>
     <row r="29">
@@ -683,7 +683,7 @@
         <v>3.704496795168366</v>
       </c>
       <c r="C29" t="n">
-        <v>5.177697853237231e-15</v>
+        <v>5.181067464326061e-15</v>
       </c>
     </row>
     <row r="30">
@@ -694,7 +694,7 @@
         <v>3.706125070068503</v>
       </c>
       <c r="C30" t="n">
-        <v>5.164706131086116e-15</v>
+        <v>5.156082834168784e-15</v>
       </c>
     </row>
     <row r="31">
@@ -705,7 +705,7 @@
         <v>3.707839043647593</v>
       </c>
       <c r="C31" t="n">
-        <v>5.076107389882528e-15</v>
+        <v>5.060221897084218e-15</v>
       </c>
     </row>
     <row r="32">
@@ -716,7 +716,7 @@
         <v>3.709638715905639</v>
       </c>
       <c r="C32" t="n">
-        <v>4.863752376290463e-15</v>
+        <v>4.878543286718579e-15</v>
       </c>
     </row>
     <row r="33">
@@ -727,7 +727,7 @@
         <v>3.71135268948473</v>
       </c>
       <c r="C33" t="n">
-        <v>4.686058382636541e-15</v>
+        <v>4.671528932563829e-15</v>
       </c>
     </row>
     <row r="34">
@@ -738,7 +738,7 @@
         <v>3.713066663063821</v>
       </c>
       <c r="C34" t="n">
-        <v>4.310130961015027e-15</v>
+        <v>4.317540610899969e-15</v>
       </c>
     </row>
     <row r="35">
@@ -749,7 +749,7 @@
         <v>3.714609239285003</v>
       </c>
       <c r="C35" t="n">
-        <v>3.876594480785136e-15</v>
+        <v>3.88169038833986e-15</v>
       </c>
     </row>
     <row r="36">
@@ -760,7 +760,7 @@
         <v>3.716494610222004</v>
       </c>
       <c r="C36" t="n">
-        <v>3.106173452168476e-15</v>
+        <v>3.096796120148207e-15</v>
       </c>
     </row>
     <row r="37">
@@ -771,7 +771,7 @@
         <v>3.718122885122139</v>
       </c>
       <c r="C37" t="n">
-        <v>2.447781895991982e-15</v>
+        <v>2.449176960297407e-15</v>
       </c>
     </row>
     <row r="38">
@@ -782,7 +782,7 @@
         <v>3.719836858701231</v>
       </c>
       <c r="C38" t="n">
-        <v>1.625413848680926e-15</v>
+        <v>1.639815845259024e-15</v>
       </c>
     </row>
     <row r="39">
@@ -793,7 +793,7 @@
         <v>3.720693845490776</v>
       </c>
       <c r="C39" t="n">
-        <v>2.285430860942075e-15</v>
+        <v>2.29949555121666e-15</v>
       </c>
     </row>
     <row r="40">
@@ -804,7 +804,7 @@
         <v>3.721636530959276</v>
       </c>
       <c r="C40" t="n">
-        <v>1.13432130339644e-15</v>
+        <v>1.144163374986406e-15</v>
       </c>
     </row>
     <row r="41">
@@ -815,7 +815,7 @@
         <v>3.723350504538367</v>
       </c>
       <c r="C41" t="n">
-        <v>7.608735972245491e-16</v>
+        <v>7.588165318980196e-16</v>
       </c>
     </row>
     <row r="42">
@@ -826,7 +826,7 @@
         <v>3.725064478117458</v>
       </c>
       <c r="C42" t="n">
-        <v>5.74112357260134e-16</v>
+        <v>5.723236730085357e-16</v>
       </c>
     </row>
     <row r="43">
@@ -837,7 +837,7 @@
         <v>3.729178014707276</v>
       </c>
       <c r="C43" t="n">
-        <v>3.379513847699944e-16</v>
+        <v>3.354557537485859e-16</v>
       </c>
     </row>
     <row r="44">
@@ -848,7 +848,7 @@
         <v>3.73337724997605</v>
       </c>
       <c r="C44" t="n">
-        <v>2.906339170178934e-16</v>
+        <v>2.893824742950444e-16</v>
       </c>
     </row>
     <row r="45">
@@ -859,7 +859,7 @@
         <v>3.737747882602732</v>
       </c>
       <c r="C45" t="n">
-        <v>2.684840031006854e-16</v>
+        <v>2.622809966281434e-16</v>
       </c>
     </row>
     <row r="46">
@@ -870,7 +870,7 @@
         <v>3.754973317072596</v>
       </c>
       <c r="C46" t="n">
-        <v>2.5819286212067e-16</v>
+        <v>2.508895063548763e-16</v>
       </c>
     </row>
     <row r="47">
@@ -881,7 +881,7 @@
         <v>3.772113052863507</v>
       </c>
       <c r="C47" t="n">
-        <v>2.890038533599418e-16</v>
+        <v>2.902934525605466e-16</v>
       </c>
     </row>
     <row r="48">
@@ -892,7 +892,7 @@
         <v>3.789167089975462</v>
       </c>
       <c r="C48" t="n">
-        <v>3.507828097076308e-16</v>
+        <v>3.44667623118904e-16</v>
       </c>
     </row>
     <row r="49">
@@ -903,7 +903,7 @@
         <v>3.797908355228826</v>
       </c>
       <c r="C49" t="n">
-        <v>4.759943437887291e-16</v>
+        <v>4.771000137852842e-16</v>
       </c>
     </row>
     <row r="50">
@@ -914,7 +914,7 @@
         <v>3.806478223124282</v>
       </c>
       <c r="C50" t="n">
-        <v>5.601806804701963e-16</v>
+        <v>5.575424601444096e-16</v>
       </c>
     </row>
     <row r="51">
@@ -925,7 +925,7 @@
         <v>3.814876693661827</v>
       </c>
       <c r="C51" t="n">
-        <v>9.885024968092049e-16</v>
+        <v>9.956087579541585e-16</v>
       </c>
     </row>
     <row r="52">
@@ -936,7 +936,7 @@
         <v>3.823360862878328</v>
       </c>
       <c r="C52" t="n">
-        <v>1.455954008309686e-15</v>
+        <v>1.457635739080828e-15</v>
       </c>
     </row>
     <row r="53">
@@ -947,7 +947,7 @@
         <v>3.82773149550501</v>
       </c>
       <c r="C53" t="n">
-        <v>3.301098136528424e-15</v>
+        <v>3.308312762884521e-15</v>
       </c>
     </row>
     <row r="54">
@@ -958,7 +958,7 @@
         <v>3.832102128131692</v>
       </c>
       <c r="C54" t="n">
-        <v>4.779921715937092e-15</v>
+        <v>4.780542418002217e-15</v>
       </c>
     </row>
     <row r="55">
@@ -969,7 +969,7 @@
         <v>3.840586297348192</v>
       </c>
       <c r="C55" t="n">
-        <v>4.730563256964095e-15</v>
+        <v>4.737291866411501e-15</v>
       </c>
     </row>
     <row r="56">
@@ -980,7 +980,7 @@
         <v>3.847442191664556</v>
       </c>
       <c r="C56" t="n">
-        <v>3.313855883867223e-15</v>
+        <v>3.316863756121407e-15</v>
       </c>
     </row>
     <row r="57">
@@ -991,7 +991,7 @@
         <v>3.854383784659876</v>
       </c>
       <c r="C57" t="n">
-        <v>1.495101806302799e-15</v>
+        <v>1.496863159369276e-15</v>
       </c>
     </row>
     <row r="58">
@@ -1002,7 +1002,7 @@
         <v>3.856183456917921</v>
       </c>
       <c r="C58" t="n">
-        <v>1.085340481446169e-15</v>
+        <v>1.094825871719588e-15</v>
       </c>
     </row>
     <row r="59">
@@ -1013,7 +1013,7 @@
         <v>3.857811731818057</v>
       </c>
       <c r="C59" t="n">
-        <v>1.431066548342558e-15</v>
+        <v>1.431134997462508e-15</v>
       </c>
     </row>
     <row r="60">
@@ -1024,7 +1024,7 @@
         <v>3.859611404076103</v>
       </c>
       <c r="C60" t="n">
-        <v>5.450636007850846e-16</v>
+        <v>5.410477876202497e-16</v>
       </c>
     </row>
     <row r="61">
@@ -1035,7 +1035,7 @@
         <v>3.86201096708683</v>
       </c>
       <c r="C61" t="n">
-        <v>3.581882288624687e-16</v>
+        <v>3.557955030041963e-16</v>
       </c>
     </row>
     <row r="62">
@@ -1046,7 +1046,7 @@
         <v>3.866295901034558</v>
       </c>
       <c r="C62" t="n">
-        <v>1.971062842593689e-16</v>
+        <v>1.962698210658611e-16</v>
       </c>
     </row>
     <row r="63">
@@ -1057,7 +1057,7 @@
         <v>3.875037166287922</v>
       </c>
       <c r="C63" t="n">
-        <v>1.385677789025231e-16</v>
+        <v>1.396597560798533e-16</v>
       </c>
     </row>
     <row r="64">
@@ -1068,7 +1068,7 @@
         <v>3.876751139867013</v>
       </c>
       <c r="C64" t="n">
-        <v>3.072800144254605e-16</v>
+        <v>3.121033880301597e-16</v>
       </c>
     </row>
     <row r="65">
@@ -1079,7 +1079,7 @@
         <v>3.879236401556695</v>
       </c>
       <c r="C65" t="n">
-        <v>8.943294534121216e-16</v>
+        <v>8.946451267103413e-16</v>
       </c>
     </row>
     <row r="66">
@@ -1090,7 +1090,7 @@
         <v>3.883521335504422</v>
       </c>
       <c r="C66" t="n">
-        <v>1.510896174605658e-15</v>
+        <v>1.516405817530792e-15</v>
       </c>
     </row>
     <row r="67">
@@ -1101,7 +1101,7 @@
         <v>3.887891968131104</v>
       </c>
       <c r="C67" t="n">
-        <v>2.66298565903591e-15</v>
+        <v>2.662598975007487e-15</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         <v>3.891491312647195</v>
       </c>
       <c r="C68" t="n">
-        <v>2.594347074747273e-15</v>
+        <v>2.596550335544002e-15</v>
       </c>
     </row>
     <row r="69">
@@ -1123,7 +1123,7 @@
         <v>3.896376137347605</v>
       </c>
       <c r="C69" t="n">
-        <v>4.342277869562277e-15</v>
+        <v>4.353743847722737e-15</v>
       </c>
     </row>
     <row r="70">
@@ -1134,7 +1134,7 @@
         <v>3.900746769974288</v>
       </c>
       <c r="C70" t="n">
-        <v>4.665078685670824e-15</v>
+        <v>4.691245425524953e-15</v>
       </c>
     </row>
     <row r="71">
@@ -1145,7 +1145,7 @@
         <v>3.908973843153924</v>
       </c>
       <c r="C71" t="n">
-        <v>5.667696399183322e-15</v>
+        <v>5.675588997072317e-15</v>
       </c>
     </row>
     <row r="72">
@@ -1156,7 +1156,7 @@
         <v>3.917886505765197</v>
       </c>
       <c r="C72" t="n">
-        <v>8.02150679776319e-15</v>
+        <v>8.045188740702214e-15</v>
       </c>
     </row>
     <row r="73">
@@ -1167,7 +1167,7 @@
         <v>3.926370674981698</v>
       </c>
       <c r="C73" t="n">
-        <v>6.943963004245014e-15</v>
+        <v>6.9567492110378e-15</v>
       </c>
     </row>
     <row r="74">
@@ -1178,7 +1178,7 @@
         <v>3.934854844198199</v>
       </c>
       <c r="C74" t="n">
-        <v>3.323199101633811e-15</v>
+        <v>3.321265879232778e-15</v>
       </c>
     </row>
     <row r="75">
@@ -1189,7 +1189,7 @@
         <v>3.943510410772608</v>
       </c>
       <c r="C75" t="n">
-        <v>1.667824963704309e-15</v>
+        <v>1.667693195684085e-15</v>
       </c>
     </row>
     <row r="76">
@@ -1200,7 +1200,7 @@
         <v>3.952251676025972</v>
       </c>
       <c r="C76" t="n">
-        <v>1.263578185569225e-15</v>
+        <v>1.268039835627344e-15</v>
       </c>
     </row>
     <row r="77">
@@ -1211,7 +1211,7 @@
         <v>3.960564447884564</v>
       </c>
       <c r="C77" t="n">
-        <v>2.68099356528338e-15</v>
+        <v>2.674019381165789e-15</v>
       </c>
     </row>
     <row r="78">
@@ -1222,7 +1222,7 @@
         <v>3.969305713137928</v>
       </c>
       <c r="C78" t="n">
-        <v>2.824761266158957e-15</v>
+        <v>2.821811171452927e-15</v>
       </c>
     </row>
     <row r="79">
@@ -1233,7 +1233,7 @@
         <v>3.977618484996519</v>
       </c>
       <c r="C79" t="n">
-        <v>1.92976930400073e-15</v>
+        <v>1.932642505302263e-15</v>
       </c>
     </row>
     <row r="80">
@@ -1244,7 +1244,7 @@
         <v>3.982160514981111</v>
       </c>
       <c r="C80" t="n">
-        <v>9.89074552212653e-16</v>
+        <v>9.887343304581284e-16</v>
       </c>
     </row>
     <row r="81">
@@ -1255,7 +1255,7 @@
         <v>3.986274051570929</v>
       </c>
       <c r="C81" t="n">
-        <v>5.660945334588116e-16</v>
+        <v>5.700842497534046e-16</v>
       </c>
     </row>
     <row r="82">
@@ -1266,7 +1266,7 @@
         <v>3.994843919466384</v>
       </c>
       <c r="C82" t="n">
-        <v>4.386250909686328e-16</v>
+        <v>4.405586532450384e-16</v>
       </c>
     </row>
     <row r="83">
@@ -1277,7 +1277,7 @@
         <v>4.012069353936249</v>
       </c>
       <c r="C83" t="n">
-        <v>2.023375997172531e-16</v>
+        <v>2.017875804364988e-16</v>
       </c>
     </row>
     <row r="84">
@@ -1288,7 +1288,7 @@
         <v>4.020724920510658</v>
       </c>
       <c r="C84" t="n">
-        <v>9.972557974350489e-17</v>
+        <v>9.785795734331414e-17</v>
       </c>
     </row>
     <row r="85">
@@ -1299,7 +1299,7 @@
         <v>4.02903769236925</v>
       </c>
       <c r="C85" t="n">
-        <v>7.150246162686402e-17</v>
+        <v>7.083683671089089e-17</v>
       </c>
     </row>
     <row r="86">
@@ -1310,7 +1310,7 @@
         <v>4.046263126839114</v>
       </c>
       <c r="C86" t="n">
-        <v>5.019798517398076e-17</v>
+        <v>4.948228451473873e-17</v>
       </c>
     </row>
     <row r="87">
@@ -1321,7 +1321,7 @@
         <v>4.063402862630025</v>
       </c>
       <c r="C87" t="n">
-        <v>4.098528212452617e-17</v>
+        <v>4.059099197737993e-17</v>
       </c>
     </row>
     <row r="88">
@@ -1332,7 +1332,7 @@
         <v>4.080542598420934</v>
       </c>
       <c r="C88" t="n">
-        <v>4.883673684260122e-17</v>
+        <v>4.880402205208631e-17</v>
       </c>
     </row>
     <row r="89">
@@ -1343,7 +1343,7 @@
         <v>4.084998929726572</v>
       </c>
       <c r="C89" t="n">
-        <v>8.482971831743465e-17</v>
+        <v>8.48275694464468e-17</v>
       </c>
     </row>
     <row r="90">
@@ -1354,7 +1354,7 @@
         <v>4.08816978084789</v>
       </c>
       <c r="C90" t="n">
-        <v>9.418200707513294e-17</v>
+        <v>9.470230725953113e-17</v>
       </c>
     </row>
     <row r="91">
@@ -1365,7 +1365,7 @@
         <v>4.097682334211846</v>
       </c>
       <c r="C91" t="n">
-        <v>1.068799661025184e-16</v>
+        <v>1.072704260428662e-16</v>
       </c>
     </row>
     <row r="92">
@@ -1376,7 +1376,7 @@
         <v>4.101967268159573</v>
       </c>
       <c r="C92" t="n">
-        <v>1.569246495798987e-16</v>
+        <v>1.571986117459809e-16</v>
       </c>
     </row>
     <row r="93">
@@ -1387,7 +1387,7 @@
         <v>4.106423599465209</v>
       </c>
       <c r="C93" t="n">
-        <v>3.221315680224079e-16</v>
+        <v>3.2228867445129e-16</v>
       </c>
     </row>
     <row r="94">
@@ -1398,7 +1398,7 @@
         <v>4.114907768681709</v>
       </c>
       <c r="C94" t="n">
-        <v>3.763307166558731e-16</v>
+        <v>3.767269977915349e-16</v>
       </c>
     </row>
     <row r="95">
@@ -1409,7 +1409,7 @@
         <v>4.123306239219255</v>
       </c>
       <c r="C95" t="n">
-        <v>2.920899076373873e-16</v>
+        <v>2.919330479061011e-16</v>
       </c>
     </row>
     <row r="96">
@@ -1420,7 +1420,7 @@
         <v>4.131961805793665</v>
       </c>
       <c r="C96" t="n">
-        <v>1.314524125817449e-16</v>
+        <v>1.310906712836191e-16</v>
       </c>
     </row>
     <row r="97">
@@ -1431,7 +1431,7 @@
         <v>4.133847176730665</v>
       </c>
       <c r="C97" t="n">
-        <v>6.223957638022633e-17</v>
+        <v>6.227869896192959e-17</v>
       </c>
     </row>
     <row r="98">
@@ -1442,7 +1442,7 @@
         <v>4.136503835778257</v>
       </c>
       <c r="C98" t="n">
-        <v>3.775611909262702e-17</v>
+        <v>3.782047771255526e-17</v>
       </c>
     </row>
     <row r="99">
@@ -1453,7 +1453,7 @@
         <v>4.140617372368075</v>
       </c>
       <c r="C99" t="n">
-        <v>2.011288177418149e-17</v>
+        <v>2.018418863648578e-17</v>
       </c>
     </row>
     <row r="100">
@@ -1464,7 +1464,7 @@
         <v>4.149015842905621</v>
       </c>
       <c r="C100" t="n">
-        <v>1.222544015383408e-17</v>
+        <v>1.204225910885117e-17</v>
       </c>
     </row>
     <row r="101">
@@ -1475,7 +1475,7 @@
         <v>4.166241277375486</v>
       </c>
       <c r="C101" t="n">
-        <v>7.405055935537363e-18</v>
+        <v>7.2737632871054e-18</v>
       </c>
     </row>
     <row r="102">
@@ -1486,7 +1486,7 @@
         <v>4.180210162045077</v>
       </c>
       <c r="C102" t="n">
-        <v>6.448712174078778e-18</v>
+        <v>6.605873314396931e-18</v>
       </c>
     </row>
     <row r="103">
@@ -1497,7 +1497,7 @@
         <v>4.200435050278351</v>
       </c>
       <c r="C103" t="n">
-        <v>6.691209170427852e-18</v>
+        <v>6.587588411447326e-18</v>
       </c>
     </row>
     <row r="104">
@@ -1508,7 +1508,7 @@
         <v>4.209004918173807</v>
       </c>
       <c r="C104" t="n">
-        <v>1.184291360125256e-17</v>
+        <v>1.199316519699721e-17</v>
       </c>
     </row>
     <row r="105">
@@ -1519,7 +1519,7 @@
         <v>4.21774618342717</v>
       </c>
       <c r="C105" t="n">
-        <v>1.583317204874684e-17</v>
+        <v>1.592824638852062e-17</v>
       </c>
     </row>
     <row r="106">
@@ -1530,7 +1530,7 @@
         <v>4.226230352643671</v>
       </c>
       <c r="C106" t="n">
-        <v>1.898473535552445e-17</v>
+        <v>1.92514202008522e-17</v>
       </c>
     </row>
     <row r="107">
@@ -1541,7 +1541,7 @@
         <v>4.231543670738853</v>
       </c>
       <c r="C107" t="n">
-        <v>1.852582490842846e-17</v>
+        <v>1.868647066722196e-17</v>
       </c>
     </row>
     <row r="108">
@@ -1552,7 +1552,7 @@
         <v>4.234971617897036</v>
       </c>
       <c r="C108" t="n">
-        <v>1.826778902746354e-17</v>
+        <v>1.830136002317011e-17</v>
       </c>
     </row>
     <row r="109">
@@ -1563,7 +1563,7 @@
         <v>4.24071342938699</v>
       </c>
       <c r="C109" t="n">
-        <v>1.679413018513999e-17</v>
+        <v>1.688512937746106e-17</v>
       </c>
     </row>
     <row r="110">
@@ -1574,7 +1574,7 @@
         <v>4.249111899924536</v>
       </c>
       <c r="C110" t="n">
-        <v>1.629085238083917e-17</v>
+        <v>1.632674551288873e-17</v>
       </c>
     </row>
     <row r="111">
@@ -1585,7 +1585,7 @@
         <v>4.2521970523669</v>
       </c>
       <c r="C111" t="n">
-        <v>1.613929461050241e-17</v>
+        <v>1.596464163760559e-17</v>
       </c>
     </row>
     <row r="112">
@@ -1596,7 +1596,7 @@
         <v>4.257767466498946</v>
       </c>
       <c r="C112" t="n">
-        <v>1.634603486535297e-17</v>
+        <v>1.687854597535947e-17</v>
       </c>
     </row>
     <row r="113">
@@ -1607,7 +1607,7 @@
         <v>4.262138099125628</v>
       </c>
       <c r="C113" t="n">
-        <v>1.654250282468706e-17</v>
+        <v>1.714411349290119e-17</v>
       </c>
     </row>
     <row r="114">
@@ -1618,7 +1618,7 @@
         <v>4.264537662136355</v>
       </c>
       <c r="C114" t="n">
-        <v>1.73644351809375e-17</v>
+        <v>1.796300929761846e-17</v>
       </c>
     </row>
     <row r="115">
@@ -1629,7 +1629,7 @@
         <v>4.267280019862901</v>
       </c>
       <c r="C115" t="n">
-        <v>1.722094737847709e-17</v>
+        <v>1.76078869488471e-17</v>
       </c>
     </row>
     <row r="116">
@@ -1640,7 +1640,7 @@
         <v>4.269079692120946</v>
       </c>
       <c r="C116" t="n">
-        <v>1.744665853566049e-17</v>
+        <v>1.758361292103685e-17</v>
       </c>
     </row>
     <row r="117">
@@ -1651,7 +1651,7 @@
         <v>4.271479255131674</v>
       </c>
       <c r="C117" t="n">
-        <v>1.666889039488474e-17</v>
+        <v>1.712597546025731e-17</v>
       </c>
     </row>
     <row r="118">
@@ -1662,7 +1662,7 @@
         <v>4.273021831352856</v>
       </c>
       <c r="C118" t="n">
-        <v>1.644492342883196e-17</v>
+        <v>1.695746848496357e-17</v>
       </c>
     </row>
     <row r="119">
@@ -1673,7 +1673,7 @@
         <v>4.281677397927266</v>
       </c>
       <c r="C119" t="n">
-        <v>1.280690707599574e-17</v>
+        <v>1.338974315851182e-17</v>
       </c>
     </row>
     <row r="120">
@@ -1684,7 +1684,7 @@
         <v>4.286305126590811</v>
       </c>
       <c r="C120" t="n">
-        <v>1.214430599324407e-17</v>
+        <v>1.2190193831548e-17</v>
       </c>
     </row>
     <row r="121">
@@ -1695,7 +1695,7 @@
         <v>4.29024726582272</v>
       </c>
       <c r="C121" t="n">
-        <v>9.388363698010511e-18</v>
+        <v>9.622217546802806e-18</v>
       </c>
     </row>
     <row r="122">
@@ -1706,7 +1706,7 @@
         <v>4.298731435039221</v>
       </c>
       <c r="C122" t="n">
-        <v>7.060146450031436e-18</v>
+        <v>7.262427187132001e-18</v>
       </c>
     </row>
     <row r="123">
@@ -1717,7 +1717,7 @@
         <v>4.303359163702766</v>
       </c>
       <c r="C123" t="n">
-        <v>7.246969691220961e-18</v>
+        <v>7.233002229211445e-18</v>
       </c>
     </row>
     <row r="124">
@@ -1728,7 +1728,7 @@
         <v>4.307472700292585</v>
       </c>
       <c r="C124" t="n">
-        <v>8.906542307943919e-18</v>
+        <v>9.166851306669339e-18</v>
       </c>
     </row>
     <row r="125">
@@ -1739,7 +1739,7 @@
         <v>4.309957961982268</v>
       </c>
       <c r="C125" t="n">
-        <v>1.189580371221754e-17</v>
+        <v>1.225008729113441e-17</v>
       </c>
     </row>
     <row r="126">
@@ -1750,7 +1750,7 @@
         <v>4.310129359340176</v>
       </c>
       <c r="C126" t="n">
-        <v>1.148099327186975e-17</v>
+        <v>1.181520000099875e-17</v>
       </c>
     </row>
     <row r="127">
@@ -1761,7 +1761,7 @@
         <v>4.311757634240313</v>
       </c>
       <c r="C127" t="n">
-        <v>1.831311873534736e-17</v>
+        <v>1.888131556639876e-17</v>
       </c>
     </row>
     <row r="128">
@@ -1772,7 +1772,7 @@
         <v>4.31604256818804</v>
       </c>
       <c r="C128" t="n">
-        <v>3.277778891578815e-17</v>
+        <v>3.360625989591658e-17</v>
       </c>
     </row>
     <row r="129">
@@ -1783,7 +1783,7 @@
         <v>4.318613528556677</v>
       </c>
       <c r="C129" t="n">
-        <v>3.520632185317245e-17</v>
+        <v>3.583975956405773e-17</v>
       </c>
     </row>
     <row r="130">
@@ -1794,7 +1794,7 @@
         <v>4.320584598172632</v>
       </c>
       <c r="C130" t="n">
-        <v>3.633855630324419e-17</v>
+        <v>3.651752850222437e-17</v>
       </c>
     </row>
     <row r="131">
@@ -1805,7 +1805,7 @@
         <v>4.322898462504404</v>
       </c>
       <c r="C131" t="n">
-        <v>4.072591381887238e-17</v>
+        <v>4.157952923926539e-17</v>
       </c>
     </row>
     <row r="132">
@@ -1816,7 +1816,7 @@
         <v>4.325555121551995</v>
       </c>
       <c r="C132" t="n">
-        <v>4.564699812463558e-17</v>
+        <v>4.662271378291916e-17</v>
       </c>
     </row>
     <row r="133">
@@ -1827,7 +1827,7 @@
         <v>4.327954684562723</v>
       </c>
       <c r="C133" t="n">
-        <v>4.713232243124613e-17</v>
+        <v>4.807299485062007e-17</v>
       </c>
     </row>
     <row r="134">
@@ -1838,7 +1838,7 @@
         <v>4.330782740968223</v>
       </c>
       <c r="C134" t="n">
-        <v>4.457540283328573e-17</v>
+        <v>4.515816247001913e-17</v>
       </c>
     </row>
     <row r="135">
@@ -1849,7 +1849,7 @@
         <v>4.33318230397895</v>
       </c>
       <c r="C135" t="n">
-        <v>3.992230715413521e-17</v>
+        <v>4.058931236882636e-17</v>
       </c>
     </row>
     <row r="136">
@@ -1860,7 +1860,7 @@
         <v>4.337638635284587</v>
       </c>
       <c r="C136" t="n">
-        <v>3.092666097279062e-17</v>
+        <v>3.10282873133326e-17</v>
       </c>
     </row>
     <row r="137">
@@ -1871,7 +1871,7 @@
         <v>4.341752171874406</v>
       </c>
       <c r="C137" t="n">
-        <v>2.131384056642814e-17</v>
+        <v>2.187789615710424e-17</v>
       </c>
     </row>
     <row r="138">
@@ -1882,7 +1882,7 @@
         <v>4.350407738448815</v>
       </c>
       <c r="C138" t="n">
-        <v>1.351342992497714e-17</v>
+        <v>1.37306856149432e-17</v>
       </c>
     </row>
     <row r="139">
@@ -1893,7 +1893,7 @@
         <v>4.354692672396543</v>
       </c>
       <c r="C139" t="n">
-        <v>1.060655113993345e-17</v>
+        <v>1.072391189228159e-17</v>
       </c>
     </row>
     <row r="140">
@@ -1904,7 +1904,7 @@
         <v>4.358634811628452</v>
       </c>
       <c r="C140" t="n">
-        <v>8.409180973316274e-18</v>
+        <v>8.520024918744257e-18</v>
       </c>
     </row>
     <row r="141">
@@ -1915,7 +1915,7 @@
         <v>4.366947583487043</v>
       </c>
       <c r="C141" t="n">
-        <v>6.672372978482421e-18</v>
+        <v>6.790996482042778e-18</v>
       </c>
     </row>
     <row r="142">
@@ -1926,7 +1926,7 @@
         <v>4.371918106866407</v>
       </c>
       <c r="C142" t="n">
-        <v>7.13468235451876e-18</v>
+        <v>7.172737467813057e-18</v>
       </c>
     </row>
     <row r="143">
@@ -1937,7 +1937,7 @@
         <v>4.375088957987725</v>
       </c>
       <c r="C143" t="n">
-        <v>2.615851811933268e-17</v>
+        <v>2.646918907574691e-17</v>
       </c>
     </row>
     <row r="144">
@@ -1948,7 +1948,7 @@
         <v>4.377745617035317</v>
       </c>
       <c r="C144" t="n">
-        <v>4.854505737525728e-17</v>
+        <v>4.904803762818474e-17</v>
       </c>
     </row>
     <row r="145">
@@ -1959,7 +1959,7 @@
         <v>4.379545289293363</v>
       </c>
       <c r="C145" t="n">
-        <v>5.321856924710959e-17</v>
+        <v>5.350738319886009e-17</v>
       </c>
     </row>
     <row r="146">
@@ -1970,7 +1970,7 @@
         <v>4.380487974761863</v>
       </c>
       <c r="C146" t="n">
-        <v>5.566533811412612e-17</v>
+        <v>5.620088493877654e-17</v>
       </c>
     </row>
     <row r="147">
@@ -1981,7 +1981,7 @@
         <v>4.380830769477681</v>
       </c>
       <c r="C147" t="n">
-        <v>5.437148137291647e-17</v>
+        <v>5.472563981387788e-17</v>
       </c>
     </row>
     <row r="148">
@@ -1992,7 +1992,7 @@
         <v>4.381087865514544</v>
       </c>
       <c r="C148" t="n">
-        <v>5.415864979254446e-17</v>
+        <v>5.433720715265249e-17</v>
       </c>
     </row>
     <row r="149">
@@ -2003,7 +2003,7 @@
         <v>4.382973236451544</v>
       </c>
       <c r="C149" t="n">
-        <v>6.602298110283285e-17</v>
+        <v>6.618227320057462e-17</v>
       </c>
     </row>
     <row r="150">
@@ -2014,7 +2014,7 @@
         <v>4.384687210030635</v>
       </c>
       <c r="C150" t="n">
-        <v>6.814634518285149e-17</v>
+        <v>6.825220542333669e-17</v>
       </c>
     </row>
     <row r="151">
@@ -2025,7 +2025,7 @@
         <v>4.386401183609727</v>
       </c>
       <c r="C151" t="n">
-        <v>6.710122182636677e-17</v>
+        <v>6.743821333021389e-17</v>
       </c>
     </row>
     <row r="152">
@@ -2036,7 +2036,7 @@
         <v>4.388029458509863</v>
       </c>
       <c r="C152" t="n">
-        <v>6.715796275173237e-17</v>
+        <v>6.742893754226172e-17</v>
       </c>
     </row>
     <row r="153">
@@ -2047,7 +2047,7 @@
         <v>4.389057842657317</v>
       </c>
       <c r="C153" t="n">
-        <v>6.733055098885418e-17</v>
+        <v>6.722259665020149e-17</v>
       </c>
     </row>
     <row r="154">
@@ -2058,7 +2058,7 @@
         <v>4.389743432088954</v>
       </c>
       <c r="C154" t="n">
-        <v>6.614323805989427e-17</v>
+        <v>6.640725888866276e-17</v>
       </c>
     </row>
     <row r="155">
@@ -2069,7 +2069,7 @@
         <v>4.392314392457591</v>
       </c>
       <c r="C155" t="n">
-        <v>6.372213242624845e-17</v>
+        <v>6.376506480309244e-17</v>
       </c>
     </row>
     <row r="156">
@@ -2080,7 +2080,7 @@
         <v>4.396599326405318</v>
       </c>
       <c r="C156" t="n">
-        <v>5.1534633461579e-17</v>
+        <v>5.165241682009288e-17</v>
       </c>
     </row>
     <row r="157">
@@ -2091,7 +2091,7 @@
         <v>4.400884260353045</v>
       </c>
       <c r="C157" t="n">
-        <v>3.673370262293173e-17</v>
+        <v>3.683447842869506e-17</v>
       </c>
     </row>
     <row r="158">
@@ -2102,7 +2102,7 @@
         <v>4.404912098263909</v>
       </c>
       <c r="C158" t="n">
-        <v>2.592405261701959e-17</v>
+        <v>2.60142521142481e-17</v>
       </c>
     </row>
     <row r="159">
@@ -2113,7 +2113,7 @@
         <v>4.406111879769273</v>
       </c>
       <c r="C159" t="n">
-        <v>2.683699922281435e-17</v>
+        <v>2.704399964647413e-17</v>
       </c>
     </row>
     <row r="160">
@@ -2124,7 +2124,7 @@
         <v>4.4094541282485</v>
       </c>
       <c r="C160" t="n">
-        <v>2.012741658039922e-17</v>
+        <v>2.032947195325485e-17</v>
       </c>
     </row>
     <row r="161">
@@ -2135,7 +2135,7 @@
         <v>4.413824760875183</v>
       </c>
       <c r="C161" t="n">
-        <v>1.94682885575311e-17</v>
+        <v>1.970008197386598e-17</v>
       </c>
     </row>
     <row r="162">
@@ -2146,7 +2146,7 @@
         <v>4.41622432388591</v>
       </c>
       <c r="C162" t="n">
-        <v>1.851803053373003e-17</v>
+        <v>1.852117158756227e-17</v>
       </c>
     </row>
     <row r="163">
@@ -2157,7 +2157,7 @@
         <v>4.418795284254546</v>
       </c>
       <c r="C163" t="n">
-        <v>1.666703740673736e-17</v>
+        <v>1.677578693478938e-17</v>
       </c>
     </row>
     <row r="164">
@@ -2168,7 +2168,7 @@
         <v>4.421623340660047</v>
       </c>
       <c r="C164" t="n">
-        <v>1.520864723943059e-17</v>
+        <v>1.520043345679408e-17</v>
       </c>
     </row>
     <row r="165">
@@ -2179,7 +2179,7 @@
         <v>4.423337314239138</v>
       </c>
       <c r="C165" t="n">
-        <v>1.431145267196991e-17</v>
+        <v>1.43485750769282e-17</v>
       </c>
     </row>
     <row r="166">
@@ -2190,7 +2190,7 @@
         <v>4.424194301028683</v>
       </c>
       <c r="C166" t="n">
-        <v>1.358185370523991e-17</v>
+        <v>1.367233234043915e-17</v>
       </c>
     </row>
     <row r="167">
@@ -2201,7 +2201,7 @@
         <v>4.429336221765956</v>
       </c>
       <c r="C167" t="n">
-        <v>1.101744322445058e-17</v>
+        <v>1.110114475725965e-17</v>
       </c>
     </row>
     <row r="168">
@@ -2212,7 +2212,7 @@
         <v>4.431392990060865</v>
       </c>
       <c r="C168" t="n">
-        <v>9.748019461850625e-18</v>
+        <v>9.784008083682022e-18</v>
       </c>
     </row>
     <row r="169">
@@ -2223,7 +2223,7 @@
         <v>4.440477050030048</v>
       </c>
       <c r="C169" t="n">
-        <v>5.806568576459523e-18</v>
+        <v>5.798095144478158e-18</v>
       </c>
     </row>
     <row r="170">
@@ -2234,7 +2234,7 @@
         <v>4.457445388463049</v>
       </c>
       <c r="C170" t="n">
-        <v>3.762675940830557e-18</v>
+        <v>3.776575654305146e-18</v>
       </c>
     </row>
     <row r="171">
@@ -2245,7 +2245,7 @@
         <v>4.474756521611869</v>
       </c>
       <c r="C171" t="n">
-        <v>3.63133327626726e-18</v>
+        <v>3.632275586643507e-18</v>
       </c>
     </row>
     <row r="172">
@@ -2256,7 +2256,7 @@
         <v>4.491896257402779</v>
       </c>
       <c r="C172" t="n">
-        <v>4.298473001942786e-18</v>
+        <v>4.311334906417723e-18</v>
       </c>
     </row>
     <row r="173">
@@ -2267,7 +2267,7 @@
         <v>4.500037631903461</v>
       </c>
       <c r="C173" t="n">
-        <v>5.240141718112244e-18</v>
+        <v>5.262060844405777e-18</v>
       </c>
     </row>
     <row r="174">
@@ -2278,7 +2278,7 @@
         <v>4.503122784345824</v>
       </c>
       <c r="C174" t="n">
-        <v>5.627983299657172e-18</v>
+        <v>5.621813409745863e-18</v>
       </c>
     </row>
     <row r="175">
@@ -2289,7 +2289,7 @@
         <v>4.509121691872643</v>
       </c>
       <c r="C175" t="n">
-        <v>7.374740195361798e-18</v>
+        <v>7.388153930423152e-18</v>
       </c>
     </row>
     <row r="176">
@@ -2300,7 +2300,7 @@
         <v>4.517520162410189</v>
       </c>
       <c r="C176" t="n">
-        <v>1.040204788691091e-17</v>
+        <v>1.040063812854298e-17</v>
       </c>
     </row>
     <row r="177">
@@ -2311,7 +2311,7 @@
         <v>4.521890795036872</v>
       </c>
       <c r="C177" t="n">
-        <v>1.196642338049669e-17</v>
+        <v>1.193163618187272e-17</v>
       </c>
     </row>
     <row r="178">
@@ -2322,7 +2322,7 @@
         <v>4.526175728984599</v>
       </c>
       <c r="C178" t="n">
-        <v>1.418976419765537e-17</v>
+        <v>1.41679248990792e-17</v>
       </c>
     </row>
     <row r="179">
@@ -2333,7 +2333,7 @@
         <v>4.530460662932327</v>
       </c>
       <c r="C179" t="n">
-        <v>1.832090002831362e-17</v>
+        <v>1.82793157907811e-17</v>
       </c>
     </row>
     <row r="180">
@@ -2344,7 +2344,7 @@
         <v>4.534574199522145</v>
       </c>
       <c r="C180" t="n">
-        <v>2.669278220332521e-17</v>
+        <v>2.673291603089978e-17</v>
       </c>
     </row>
     <row r="181">
@@ -2355,7 +2355,7 @@
         <v>4.539030530827781</v>
       </c>
       <c r="C181" t="n">
-        <v>3.314738803137686e-17</v>
+        <v>3.300631743421325e-17</v>
       </c>
     </row>
     <row r="182">
@@ -2366,7 +2366,7 @@
         <v>4.543486862133419</v>
       </c>
       <c r="C182" t="n">
-        <v>4.173830389700616e-17</v>
+        <v>4.173054051346324e-17</v>
       </c>
     </row>
     <row r="183">
@@ -2377,7 +2377,7 @@
         <v>4.545800726465191</v>
       </c>
       <c r="C183" t="n">
-        <v>4.822535246289969e-17</v>
+        <v>4.823694878463799e-17</v>
       </c>
     </row>
     <row r="184">
@@ -2388,7 +2388,7 @@
         <v>4.549914263055009</v>
       </c>
       <c r="C184" t="n">
-        <v>4.553465887652511e-17</v>
+        <v>4.56432277865967e-17</v>
       </c>
     </row>
     <row r="185">
@@ -2399,7 +2399,7 @@
         <v>4.551628236634101</v>
       </c>
       <c r="C185" t="n">
-        <v>4.430445452411456e-17</v>
+        <v>4.430689059750931e-17</v>
       </c>
     </row>
     <row r="186">
@@ -2410,7 +2410,7 @@
         <v>4.553942100965873</v>
       </c>
       <c r="C186" t="n">
-        <v>4.091308026573354e-17</v>
+        <v>4.09004631079666e-17</v>
       </c>
     </row>
     <row r="187">
@@ -2421,7 +2421,7 @@
         <v>4.558912624345237</v>
       </c>
       <c r="C187" t="n">
-        <v>3.41890769957932e-17</v>
+        <v>3.424465302607008e-17</v>
       </c>
     </row>
     <row r="188">
@@ -2432,7 +2432,7 @@
         <v>4.562940462256101</v>
       </c>
       <c r="C188" t="n">
-        <v>3.150781289649211e-17</v>
+        <v>3.153705961214095e-17</v>
       </c>
     </row>
     <row r="189">
@@ -2443,7 +2443,7 @@
         <v>4.56688260148801</v>
       </c>
       <c r="C189" t="n">
-        <v>2.626006900202674e-17</v>
+        <v>2.624915100831028e-17</v>
       </c>
     </row>
     <row r="190">
@@ -2454,7 +2454,7 @@
         <v>4.571424631472602</v>
       </c>
       <c r="C190" t="n">
-        <v>2.018628011985755e-17</v>
+        <v>2.019232079749574e-17</v>
       </c>
     </row>
     <row r="191">
@@ -2465,7 +2465,7 @@
         <v>4.575623866741375</v>
       </c>
       <c r="C191" t="n">
-        <v>1.644221436776995e-17</v>
+        <v>1.647829493260086e-17</v>
       </c>
     </row>
     <row r="192">
@@ -2476,7 +2476,7 @@
         <v>4.580080198047011</v>
       </c>
       <c r="C192" t="n">
-        <v>1.19129050049129e-17</v>
+        <v>1.192000639870197e-17</v>
       </c>
     </row>
     <row r="193">
@@ -2487,7 +2487,7 @@
         <v>4.58402233727892</v>
       </c>
       <c r="C193" t="n">
-        <v>7.903010081274116e-18</v>
+        <v>7.905430421662281e-18</v>
       </c>
     </row>
     <row r="194">
@@ -2498,7 +2498,7 @@
         <v>4.588478668584557</v>
       </c>
       <c r="C194" t="n">
-        <v>4.713560389013748e-18</v>
+        <v>4.732276933748979e-18</v>
       </c>
     </row>
     <row r="195">
@@ -2509,7 +2509,7 @@
         <v>4.588650065942466</v>
       </c>
       <c r="C195" t="n">
-        <v>4.740767487899217e-18</v>
+        <v>4.735106936232547e-18</v>
       </c>
     </row>
     <row r="196">
@@ -2520,7 +2520,7 @@
         <v>4.592078013100648</v>
       </c>
       <c r="C196" t="n">
-        <v>3.488811555566945e-18</v>
+        <v>3.487668023276488e-18</v>
       </c>
     </row>
     <row r="197">
@@ -2531,7 +2531,7 @@
         <v>4.593277794606012</v>
       </c>
       <c r="C197" t="n">
-        <v>3.270993133681092e-18</v>
+        <v>3.257499406532343e-18</v>
       </c>
     </row>
     <row r="198">
@@ -2542,7 +2542,7 @@
         <v>4.593534890642876</v>
       </c>
       <c r="C198" t="n">
-        <v>3.067334063731902e-18</v>
+        <v>3.067558492807513e-18</v>
       </c>
     </row>
     <row r="199">
@@ -2553,7 +2553,7 @@
         <v>4.596534344406285</v>
       </c>
       <c r="C199" t="n">
-        <v>5.061158117918032e-18</v>
+        <v>5.065078282748023e-18</v>
       </c>
     </row>
     <row r="200">
@@ -2564,7 +2564,7 @@
         <v>4.597819824590603</v>
       </c>
       <c r="C200" t="n">
-        <v>3.87063989366894e-18</v>
+        <v>3.869027300767735e-18</v>
       </c>
     </row>
     <row r="201">
@@ -2575,7 +2575,7 @@
         <v>4.601504867785649</v>
       </c>
       <c r="C201" t="n">
-        <v>5.91943946837096e-18</v>
+        <v>5.923839351765533e-18</v>
       </c>
     </row>
     <row r="202">
@@ -2586,7 +2586,7 @@
         <v>4.603133142685785</v>
       </c>
       <c r="C202" t="n">
-        <v>5.552085786236817e-18</v>
+        <v>5.548733227115944e-18</v>
       </c>
     </row>
     <row r="203">
@@ -2597,7 +2597,7 @@
         <v>4.604932814943831</v>
       </c>
       <c r="C203" t="n">
-        <v>5.261456334949956e-18</v>
+        <v>5.277441939521972e-18</v>
       </c>
     </row>
     <row r="204">
@@ -2608,7 +2608,7 @@
         <v>4.606646788522922</v>
       </c>
       <c r="C204" t="n">
-        <v>5.136703607800774e-18</v>
+        <v>5.13804216848831e-18</v>
       </c>
     </row>
     <row r="205">
@@ -2619,7 +2619,7 @@
         <v>4.608446460780968</v>
       </c>
       <c r="C205" t="n">
-        <v>4.955666069277447e-18</v>
+        <v>4.935418286764813e-18</v>
       </c>
     </row>
     <row r="206">
@@ -2630,7 +2630,7 @@
         <v>4.610160434360059</v>
       </c>
       <c r="C206" t="n">
-        <v>4.641571975133525e-18</v>
+        <v>4.641927610747882e-18</v>
       </c>
     </row>
     <row r="207">
@@ -2641,7 +2641,7 @@
         <v>4.611617311902286</v>
       </c>
       <c r="C207" t="n">
-        <v>4.647873997028225e-18</v>
+        <v>4.639107772194898e-18</v>
       </c>
     </row>
     <row r="208">
@@ -2652,7 +2652,7 @@
         <v>4.615987944528968</v>
       </c>
       <c r="C208" t="n">
-        <v>2.651827595180773e-18</v>
+        <v>2.664435183556324e-18</v>
       </c>
     </row>
     <row r="209">
@@ -2663,7 +2663,7 @@
         <v>4.620529974513559</v>
       </c>
       <c r="C209" t="n">
-        <v>1.123834794909259e-18</v>
+        <v>1.129577014059806e-18</v>
       </c>
     </row>
     <row r="210">
@@ -2674,7 +2674,7 @@
         <v>4.622929537524286</v>
       </c>
       <c r="C210" t="n">
-        <v>7.091321477361212e-19</v>
+        <v>7.105139387394129e-19</v>
       </c>
     </row>
     <row r="211">
@@ -2685,7 +2685,7 @@
         <v>4.623272332240105</v>
       </c>
       <c r="C211" t="n">
-        <v>9.903585568609016e-19</v>
+        <v>9.940664676850616e-19</v>
       </c>
     </row>
     <row r="212">
@@ -2696,7 +2696,7 @@
         <v>4.623786524313832</v>
       </c>
       <c r="C212" t="n">
-        <v>6.205101873849619e-19</v>
+        <v>6.157054296466573e-19</v>
       </c>
     </row>
     <row r="213">
@@ -2707,7 +2707,7 @@
         <v>4.625586196571877</v>
       </c>
       <c r="C213" t="n">
-        <v>4.732721517956119e-19</v>
+        <v>4.715336396468627e-19</v>
       </c>
     </row>
     <row r="214">
@@ -2718,7 +2718,7 @@
         <v>4.628928445051105</v>
       </c>
       <c r="C214" t="n">
-        <v>4.014994425157353e-19</v>
+        <v>3.998139381967062e-19</v>
       </c>
     </row>
     <row r="215">
@@ -2729,7 +2729,7 @@
         <v>4.631670802777651</v>
       </c>
       <c r="C215" t="n">
-        <v>3.666224511611933e-19</v>
+        <v>3.661296152715491e-19</v>
       </c>
     </row>
     <row r="216">
@@ -2740,7 +2740,7 @@
         <v>4.64049776670997</v>
       </c>
       <c r="C216" t="n">
-        <v>3.349952212722806e-19</v>
+        <v>3.417115504772722e-19</v>
       </c>
     </row>
     <row r="217">
@@ -2751,7 +2751,7 @@
         <v>4.649667525358106</v>
       </c>
       <c r="C217" t="n">
-        <v>3.801210638544855e-19</v>
+        <v>3.756102725016743e-19</v>
       </c>
     </row>
     <row r="218">
@@ -2762,7 +2762,7 @@
         <v>4.658494489290425</v>
       </c>
       <c r="C218" t="n">
-        <v>3.558275106103275e-19</v>
+        <v>3.577420832123219e-19</v>
       </c>
     </row>
     <row r="219">
@@ -2773,7 +2773,7 @@
         <v>4.667921343975426</v>
       </c>
       <c r="C219" t="n">
-        <v>3.700080670094374e-19</v>
+        <v>3.699164993740963e-19</v>
       </c>
     </row>
     <row r="220">
@@ -2784,7 +2784,7 @@
         <v>4.671263592454653</v>
       </c>
       <c r="C220" t="n">
-        <v>4.163858005399657e-19</v>
+        <v>4.179516027625411e-19</v>
       </c>
     </row>
   </sheetData>
